--- a/HL funds data.xlsx
+++ b/HL funds data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl\Documents\Python Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl\Documents\HL_model_git\HL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="28800" windowHeight="12195" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="28800" windowHeight="12195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc price" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -140,6 +140,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M793"/>
   <sheetViews>
-    <sheetView topLeftCell="A665" workbookViewId="0">
-      <selection activeCell="L681" sqref="L681"/>
+    <sheetView topLeftCell="A674" workbookViewId="0">
+      <selection activeCell="B710" sqref="B710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24507,193 +24508,805 @@
         <v>100.38</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <f t="shared" si="0"/>
         <v>42956</v>
       </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B689">
+        <v>197.24</v>
+      </c>
+      <c r="C689">
+        <v>362.33</v>
+      </c>
+      <c r="D689">
+        <v>233.09</v>
+      </c>
+      <c r="E689">
+        <v>171.91</v>
+      </c>
+      <c r="F689">
+        <v>184.89</v>
+      </c>
+      <c r="G689">
+        <v>131.58000000000001</v>
+      </c>
+      <c r="H689">
+        <v>143.31</v>
+      </c>
+      <c r="I689">
+        <v>127.76</v>
+      </c>
+      <c r="J689">
+        <v>114.28</v>
+      </c>
+      <c r="K689">
+        <v>118.49</v>
+      </c>
+      <c r="L689">
+        <v>119.33</v>
+      </c>
+      <c r="M689">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <f t="shared" si="0"/>
         <v>42957</v>
       </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B690">
+        <v>196.09</v>
+      </c>
+      <c r="C690">
+        <v>361.04</v>
+      </c>
+      <c r="D690">
+        <v>232.2</v>
+      </c>
+      <c r="E690">
+        <v>171.37</v>
+      </c>
+      <c r="F690">
+        <v>184.93</v>
+      </c>
+      <c r="G690">
+        <v>130.91</v>
+      </c>
+      <c r="H690">
+        <v>141.88999999999999</v>
+      </c>
+      <c r="I690">
+        <v>127.56</v>
+      </c>
+      <c r="J690">
+        <v>114.12</v>
+      </c>
+      <c r="K690">
+        <v>118.01</v>
+      </c>
+      <c r="L690">
+        <v>119.77</v>
+      </c>
+      <c r="M690">
+        <v>99.65</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <f t="shared" si="0"/>
         <v>42958</v>
       </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B691">
+        <v>195.28</v>
+      </c>
+      <c r="C691">
+        <v>360.32</v>
+      </c>
+      <c r="D691">
+        <v>231.74</v>
+      </c>
+      <c r="E691">
+        <v>170.9</v>
+      </c>
+      <c r="F691">
+        <v>184.89</v>
+      </c>
+      <c r="G691">
+        <v>130.07</v>
+      </c>
+      <c r="H691">
+        <v>141.47999999999999</v>
+      </c>
+      <c r="I691">
+        <v>127.01</v>
+      </c>
+      <c r="J691">
+        <v>114.1</v>
+      </c>
+      <c r="K691">
+        <v>117.86</v>
+      </c>
+      <c r="L691">
+        <v>117.5</v>
+      </c>
+      <c r="M691">
+        <v>98.54</v>
+      </c>
+    </row>
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <f t="shared" si="0"/>
         <v>42961</v>
       </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B692">
+        <v>192.5</v>
+      </c>
+      <c r="C692">
+        <v>357.63</v>
+      </c>
+      <c r="D692">
+        <v>230.3</v>
+      </c>
+      <c r="E692">
+        <v>169.85</v>
+      </c>
+      <c r="F692">
+        <v>184.93</v>
+      </c>
+      <c r="G692">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="H692">
+        <v>140.41999999999999</v>
+      </c>
+      <c r="I692">
+        <v>125.75</v>
+      </c>
+      <c r="J692">
+        <v>113.75</v>
+      </c>
+      <c r="K692">
+        <v>116.88</v>
+      </c>
+      <c r="L692">
+        <v>118.52</v>
+      </c>
+      <c r="M692">
+        <v>99.01</v>
+      </c>
+    </row>
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <f t="shared" si="0"/>
         <v>42962</v>
       </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B693">
+        <v>193.68</v>
+      </c>
+      <c r="C693">
+        <v>358.92</v>
+      </c>
+      <c r="D693">
+        <v>231.01</v>
+      </c>
+      <c r="E693">
+        <v>170.19</v>
+      </c>
+      <c r="F693">
+        <v>184.73</v>
+      </c>
+      <c r="G693">
+        <v>129.49</v>
+      </c>
+      <c r="H693">
+        <v>142.47</v>
+      </c>
+      <c r="I693">
+        <v>126.39</v>
+      </c>
+      <c r="J693">
+        <v>113.88</v>
+      </c>
+      <c r="K693">
+        <v>117.3</v>
+      </c>
+      <c r="L693">
+        <v>120.13</v>
+      </c>
+      <c r="M693">
+        <v>99.55</v>
+      </c>
+    </row>
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <f t="shared" si="0"/>
         <v>42963</v>
       </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B694">
+        <v>194.69</v>
+      </c>
+      <c r="C694">
+        <v>360.61</v>
+      </c>
+      <c r="D694">
+        <v>231.91</v>
+      </c>
+      <c r="E694">
+        <v>170.84</v>
+      </c>
+      <c r="F694">
+        <v>184.92</v>
+      </c>
+      <c r="G694">
+        <v>129.97999999999999</v>
+      </c>
+      <c r="H694">
+        <v>143.35</v>
+      </c>
+      <c r="I694">
+        <v>127.25</v>
+      </c>
+      <c r="J694">
+        <v>114.21</v>
+      </c>
+      <c r="K694">
+        <v>117.77</v>
+      </c>
+      <c r="L694">
+        <v>120.65</v>
+      </c>
+      <c r="M694">
+        <v>100.29</v>
+      </c>
+    </row>
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <f t="shared" si="0"/>
         <v>42964</v>
       </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B695">
+        <v>195.6</v>
+      </c>
+      <c r="C695">
+        <v>362.05</v>
+      </c>
+      <c r="D695">
+        <v>232.52</v>
+      </c>
+      <c r="E695">
+        <v>171.25</v>
+      </c>
+      <c r="F695">
+        <v>184.73</v>
+      </c>
+      <c r="G695">
+        <v>130.44999999999999</v>
+      </c>
+      <c r="H695">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="I695">
+        <v>127.92</v>
+      </c>
+      <c r="J695">
+        <v>114.43</v>
+      </c>
+      <c r="K695">
+        <v>118.03</v>
+      </c>
+      <c r="L695">
+        <v>120.88</v>
+      </c>
+      <c r="M695">
+        <v>100.31</v>
+      </c>
+    </row>
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <f t="shared" si="0"/>
         <v>42965</v>
       </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B696">
+        <v>195.5</v>
+      </c>
+      <c r="C696">
+        <v>362.73</v>
+      </c>
+      <c r="D696">
+        <v>232.82</v>
+      </c>
+      <c r="E696">
+        <v>171.38</v>
+      </c>
+      <c r="F696">
+        <v>184.87</v>
+      </c>
+      <c r="G696">
+        <v>130.44999999999999</v>
+      </c>
+      <c r="H696">
+        <v>143.81</v>
+      </c>
+      <c r="I696">
+        <v>128.44999999999999</v>
+      </c>
+      <c r="J696">
+        <v>114.47</v>
+      </c>
+      <c r="K696">
+        <v>118.09</v>
+      </c>
+      <c r="L696">
+        <v>119.97</v>
+      </c>
+      <c r="M696">
+        <v>99.16</v>
+      </c>
+    </row>
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <f t="shared" si="0"/>
         <v>42968</v>
       </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B697">
+        <v>193.33</v>
+      </c>
+      <c r="C697">
+        <v>360.21</v>
+      </c>
+      <c r="D697">
+        <v>231.35</v>
+      </c>
+      <c r="E697">
+        <v>170.47</v>
+      </c>
+      <c r="F697">
+        <v>184.9</v>
+      </c>
+      <c r="G697">
+        <v>129.44999999999999</v>
+      </c>
+      <c r="H697">
+        <v>142.57</v>
+      </c>
+      <c r="I697">
+        <v>127.64</v>
+      </c>
+      <c r="J697">
+        <v>114.18</v>
+      </c>
+      <c r="K697">
+        <v>117.38</v>
+      </c>
+      <c r="L697">
+        <v>119.35</v>
+      </c>
+      <c r="M697">
+        <v>99.13</v>
+      </c>
+    </row>
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <f t="shared" si="0"/>
         <v>42969</v>
       </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B698">
+        <v>193.54</v>
+      </c>
+      <c r="C698">
+        <v>360.24</v>
+      </c>
+      <c r="D698">
+        <v>231.32</v>
+      </c>
+      <c r="E698">
+        <v>170.43</v>
+      </c>
+      <c r="F698">
+        <v>185.02</v>
+      </c>
+      <c r="G698">
+        <v>129.52000000000001</v>
+      </c>
+      <c r="H698">
+        <v>142.86000000000001</v>
+      </c>
+      <c r="I698">
+        <v>127.81</v>
+      </c>
+      <c r="J698">
+        <v>114.08</v>
+      </c>
+      <c r="K698">
+        <v>117.52</v>
+      </c>
+      <c r="L698">
+        <v>120.04</v>
+      </c>
+      <c r="M698">
+        <v>97.83</v>
+      </c>
+    </row>
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <f t="shared" si="0"/>
         <v>42970</v>
       </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B699">
+        <v>193.31</v>
+      </c>
+      <c r="C699">
+        <v>361.11</v>
+      </c>
+      <c r="D699">
+        <v>231.74</v>
+      </c>
+      <c r="E699">
+        <v>170.12</v>
+      </c>
+      <c r="F699">
+        <v>185.14</v>
+      </c>
+      <c r="G699">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="H699">
+        <v>143.54</v>
+      </c>
+      <c r="I699">
+        <v>128.82</v>
+      </c>
+      <c r="J699">
+        <v>114.24</v>
+      </c>
+      <c r="K699">
+        <v>117.75</v>
+      </c>
+      <c r="L699">
+        <v>119.54</v>
+      </c>
+      <c r="M699">
+        <v>97.74</v>
+      </c>
+    </row>
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <f t="shared" si="0"/>
         <v>42971</v>
       </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B700">
+        <v>194.05</v>
+      </c>
+      <c r="C700">
+        <v>362.46</v>
+      </c>
+      <c r="D700">
+        <v>232.48</v>
+      </c>
+      <c r="E700">
+        <v>170.44</v>
+      </c>
+      <c r="F700">
+        <v>185.1</v>
+      </c>
+      <c r="G700">
+        <v>130.13</v>
+      </c>
+      <c r="H700">
+        <v>144.55000000000001</v>
+      </c>
+      <c r="I700">
+        <v>129.4</v>
+      </c>
+      <c r="J700">
+        <v>114.42</v>
+      </c>
+      <c r="K700">
+        <v>117.96</v>
+      </c>
+      <c r="L700">
+        <v>119.26</v>
+      </c>
+      <c r="M700">
+        <v>98.14</v>
+      </c>
+    </row>
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <f t="shared" si="0"/>
         <v>42972</v>
       </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B701">
+        <v>194.27</v>
+      </c>
+      <c r="C701">
+        <v>361.84</v>
+      </c>
+      <c r="D701">
+        <v>232.17</v>
+      </c>
+      <c r="E701">
+        <v>170.47</v>
+      </c>
+      <c r="F701">
+        <v>185.21</v>
+      </c>
+      <c r="G701">
+        <v>130.13</v>
+      </c>
+      <c r="H701">
+        <v>144.28</v>
+      </c>
+      <c r="I701">
+        <v>129.87</v>
+      </c>
+      <c r="J701">
+        <v>114.43</v>
+      </c>
+      <c r="K701">
+        <v>118.04</v>
+      </c>
+      <c r="L701">
+        <v>119.8</v>
+      </c>
+      <c r="M701">
+        <v>98.47</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <f t="shared" si="0"/>
         <v>42975</v>
       </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B702">
+        <v>194.27</v>
+      </c>
+      <c r="C702">
+        <v>361.84</v>
+      </c>
+      <c r="D702">
+        <v>232.17</v>
+      </c>
+      <c r="E702">
+        <v>170.47</v>
+      </c>
+      <c r="F702">
+        <v>185.21</v>
+      </c>
+      <c r="G702">
+        <v>130.13</v>
+      </c>
+      <c r="H702">
+        <v>144.28</v>
+      </c>
+      <c r="I702">
+        <v>129.87</v>
+      </c>
+      <c r="J702">
+        <v>114.43</v>
+      </c>
+      <c r="K702">
+        <v>118.04</v>
+      </c>
+      <c r="L702">
+        <v>119.8</v>
+      </c>
+      <c r="M702">
+        <v>98.47</v>
+      </c>
+    </row>
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <f t="shared" si="0"/>
         <v>42976</v>
       </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B703">
+        <v>194.46</v>
+      </c>
+      <c r="C703">
+        <v>361.35</v>
+      </c>
+      <c r="D703">
+        <v>232.08</v>
+      </c>
+      <c r="E703">
+        <v>170.5</v>
+      </c>
+      <c r="F703">
+        <v>185.19</v>
+      </c>
+      <c r="G703">
+        <v>129.82</v>
+      </c>
+      <c r="H703">
+        <v>144.44999999999999</v>
+      </c>
+      <c r="I703">
+        <v>129.91999999999999</v>
+      </c>
+      <c r="J703">
+        <v>114.42</v>
+      </c>
+      <c r="K703">
+        <v>118.06</v>
+      </c>
+      <c r="L703">
+        <v>117.99</v>
+      </c>
+      <c r="M703">
+        <v>97.11</v>
+      </c>
+    </row>
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <f t="shared" si="0"/>
         <v>42977</v>
       </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B704">
+        <v>192.17</v>
+      </c>
+      <c r="C704">
+        <v>359.87</v>
+      </c>
+      <c r="D704">
+        <v>231.04</v>
+      </c>
+      <c r="E704">
+        <v>169.72</v>
+      </c>
+      <c r="F704">
+        <v>185.47</v>
+      </c>
+      <c r="G704">
+        <v>129.01</v>
+      </c>
+      <c r="H704">
+        <v>142.94</v>
+      </c>
+      <c r="I704">
+        <v>128.85</v>
+      </c>
+      <c r="J704">
+        <v>114.17</v>
+      </c>
+      <c r="K704">
+        <v>117.34</v>
+      </c>
+      <c r="L704">
+        <v>119.02</v>
+      </c>
+      <c r="M704">
+        <v>97.46</v>
+      </c>
+    </row>
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <f t="shared" si="0"/>
         <v>42978</v>
       </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B705">
+        <v>193.29</v>
+      </c>
+      <c r="C705">
+        <v>361.21</v>
+      </c>
+      <c r="D705">
+        <v>231.72</v>
+      </c>
+      <c r="E705">
+        <v>170.18</v>
+      </c>
+      <c r="F705">
+        <v>185.42</v>
+      </c>
+      <c r="G705">
+        <v>129.78</v>
+      </c>
+      <c r="H705">
+        <v>143.43</v>
+      </c>
+      <c r="I705">
+        <v>129.5</v>
+      </c>
+      <c r="J705">
+        <v>114.38</v>
+      </c>
+      <c r="K705">
+        <v>117.7</v>
+      </c>
+      <c r="L705">
+        <v>120.28</v>
+      </c>
+      <c r="M705">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <f t="shared" si="0"/>
         <v>42979</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <f t="shared" si="0"/>
         <v>42982</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <f t="shared" si="0"/>
         <v>42983</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <f t="shared" si="0"/>
         <v>42984</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <f t="shared" si="0"/>
         <v>42985</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <f t="shared" si="0"/>
         <v>42986</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <f t="shared" si="0"/>
         <v>42989</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <f t="shared" si="0"/>
         <v>42990</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <f t="shared" si="0"/>
         <v>42991</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <f t="shared" si="0"/>
         <v>42992</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <f t="shared" si="0"/>
         <v>42993</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <f t="shared" si="0"/>
         <v>42996</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <f t="shared" si="0"/>
         <v>42997</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <f t="shared" si="0"/>
         <v>42998</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <f t="shared" si="0"/>
         <v>42999</v>
@@ -25140,8 +25753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M850"/>
   <sheetViews>
-    <sheetView topLeftCell="A668" workbookViewId="0">
-      <selection activeCell="D692" sqref="D692"/>
+    <sheetView tabSelected="1" topLeftCell="A683" workbookViewId="0">
+      <selection activeCell="H698" sqref="H698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39514,193 +40127,550 @@
         <v>98.88</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <f t="shared" si="0"/>
         <v>42956</v>
       </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B689">
+        <v>110.63</v>
+      </c>
+      <c r="E689">
+        <v>122.04</v>
+      </c>
+      <c r="F689">
+        <v>148.72999999999999</v>
+      </c>
+      <c r="J689">
+        <v>112.88</v>
+      </c>
+      <c r="K689">
+        <v>112.34</v>
+      </c>
+      <c r="L689">
+        <v>118.88</v>
+      </c>
+      <c r="M689">
+        <v>98.22</v>
+      </c>
+    </row>
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <f t="shared" si="0"/>
         <v>42957</v>
       </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B690">
+        <v>109.99</v>
+      </c>
+      <c r="E690">
+        <v>121.66</v>
+      </c>
+      <c r="F690">
+        <v>148.76</v>
+      </c>
+      <c r="J690">
+        <v>112.72</v>
+      </c>
+      <c r="K690">
+        <v>111.88</v>
+      </c>
+      <c r="L690">
+        <v>119.32</v>
+      </c>
+      <c r="M690">
+        <v>98.16</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <f t="shared" si="0"/>
         <v>42958</v>
       </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B691">
+        <v>109.53</v>
+      </c>
+      <c r="E691">
+        <v>121.32</v>
+      </c>
+      <c r="F691">
+        <v>148.72999999999999</v>
+      </c>
+      <c r="J691">
+        <v>112.7</v>
+      </c>
+      <c r="K691">
+        <v>111.75</v>
+      </c>
+      <c r="L691">
+        <v>117.06</v>
+      </c>
+      <c r="M691">
+        <v>97.07</v>
+      </c>
+    </row>
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <f t="shared" si="0"/>
         <v>42961</v>
       </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B692">
+        <v>107.97</v>
+      </c>
+      <c r="E692">
+        <v>120.57</v>
+      </c>
+      <c r="F692">
+        <v>148.76</v>
+      </c>
+      <c r="J692">
+        <v>112.35</v>
+      </c>
+      <c r="K692">
+        <v>110.83</v>
+      </c>
+      <c r="L692">
+        <v>118.08</v>
+      </c>
+      <c r="M692">
+        <v>97.53</v>
+      </c>
+    </row>
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <f t="shared" si="0"/>
         <v>42962</v>
       </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B693">
+        <v>108.63</v>
+      </c>
+      <c r="E693">
+        <v>120.82</v>
+      </c>
+      <c r="F693">
+        <v>148.61000000000001</v>
+      </c>
+      <c r="J693">
+        <v>112.48</v>
+      </c>
+      <c r="K693">
+        <v>111.22</v>
+      </c>
+      <c r="L693">
+        <v>119.67</v>
+      </c>
+      <c r="M693">
+        <v>98.06</v>
+      </c>
+    </row>
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <f t="shared" si="0"/>
         <v>42963</v>
       </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B694">
+        <v>109.2</v>
+      </c>
+      <c r="E694">
+        <v>121.28</v>
+      </c>
+      <c r="F694">
+        <v>148.75</v>
+      </c>
+      <c r="J694">
+        <v>112.81</v>
+      </c>
+      <c r="K694">
+        <v>111.67</v>
+      </c>
+      <c r="L694">
+        <v>120.2</v>
+      </c>
+      <c r="M694">
+        <v>98.79</v>
+      </c>
+    </row>
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <f t="shared" si="0"/>
         <v>42964</v>
       </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B695">
+        <v>109.71</v>
+      </c>
+      <c r="E695">
+        <v>121.57</v>
+      </c>
+      <c r="F695">
+        <v>148.61000000000001</v>
+      </c>
+      <c r="J695">
+        <v>113.03</v>
+      </c>
+      <c r="K695">
+        <v>111.91</v>
+      </c>
+      <c r="L695">
+        <v>120.42</v>
+      </c>
+      <c r="M695">
+        <v>98.81</v>
+      </c>
+    </row>
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <f t="shared" si="0"/>
         <v>42965</v>
       </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B696">
+        <v>109.66</v>
+      </c>
+      <c r="E696">
+        <v>121.66</v>
+      </c>
+      <c r="F696">
+        <v>148.72</v>
+      </c>
+      <c r="J696">
+        <v>113.07</v>
+      </c>
+      <c r="K696">
+        <v>111.96</v>
+      </c>
+      <c r="L696">
+        <v>119.53</v>
+      </c>
+      <c r="M696">
+        <v>97.68</v>
+      </c>
+    </row>
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <f t="shared" si="0"/>
         <v>42968</v>
       </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B697">
+        <v>108.44</v>
+      </c>
+      <c r="E697">
+        <v>121.02</v>
+      </c>
+      <c r="F697">
+        <v>148.74</v>
+      </c>
+      <c r="J697">
+        <v>112.78</v>
+      </c>
+      <c r="K697">
+        <v>111.3</v>
+      </c>
+      <c r="L697">
+        <v>118.9</v>
+      </c>
+      <c r="M697">
+        <v>97.66</v>
+      </c>
+    </row>
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <f t="shared" si="0"/>
         <v>42969</v>
       </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B698">
+        <v>108.56</v>
+      </c>
+      <c r="E698">
+        <v>120.98</v>
+      </c>
+      <c r="F698">
+        <v>148.84</v>
+      </c>
+      <c r="J698">
+        <v>112.68</v>
+      </c>
+      <c r="K698">
+        <v>111.42</v>
+      </c>
+      <c r="L698">
+        <v>119.59</v>
+      </c>
+      <c r="M698">
+        <v>96.37</v>
+      </c>
+    </row>
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <f t="shared" si="0"/>
         <v>42970</v>
       </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B699">
+        <v>108.43</v>
+      </c>
+      <c r="E699">
+        <v>120.77</v>
+      </c>
+      <c r="F699">
+        <v>148.93</v>
+      </c>
+      <c r="J699">
+        <v>112.84</v>
+      </c>
+      <c r="K699">
+        <v>111.65</v>
+      </c>
+      <c r="L699">
+        <v>119.09</v>
+      </c>
+      <c r="M699">
+        <v>96.29</v>
+      </c>
+    </row>
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <f t="shared" si="0"/>
         <v>42971</v>
       </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B700">
+        <v>108.84</v>
+      </c>
+      <c r="E700">
+        <v>120.99</v>
+      </c>
+      <c r="F700">
+        <v>148.9</v>
+      </c>
+      <c r="J700">
+        <v>113.02</v>
+      </c>
+      <c r="K700">
+        <v>111.85</v>
+      </c>
+      <c r="L700">
+        <v>118.81</v>
+      </c>
+      <c r="M700">
+        <v>96.67</v>
+      </c>
+    </row>
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <f t="shared" si="0"/>
         <v>42972</v>
       </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B701">
+        <v>108.97</v>
+      </c>
+      <c r="E701">
+        <v>121.02</v>
+      </c>
+      <c r="F701">
+        <v>148.99</v>
+      </c>
+      <c r="J701">
+        <v>113.02</v>
+      </c>
+      <c r="K701">
+        <v>111.92</v>
+      </c>
+      <c r="L701">
+        <v>119.35</v>
+      </c>
+      <c r="M701">
+        <v>97.01</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <f t="shared" si="0"/>
         <v>42975</v>
       </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B702">
+        <v>108.97</v>
+      </c>
+      <c r="E702">
+        <v>121.02</v>
+      </c>
+      <c r="F702">
+        <v>148.99</v>
+      </c>
+      <c r="J702">
+        <v>113.02</v>
+      </c>
+      <c r="K702">
+        <v>111.92</v>
+      </c>
+      <c r="L702">
+        <v>119.35</v>
+      </c>
+      <c r="M702">
+        <v>97.01</v>
+      </c>
+    </row>
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <f t="shared" si="0"/>
         <v>42976</v>
       </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B703">
+        <v>109.08</v>
+      </c>
+      <c r="E703">
+        <v>121.03</v>
+      </c>
+      <c r="F703">
+        <v>148.97</v>
+      </c>
+      <c r="J703">
+        <v>113.02</v>
+      </c>
+      <c r="K703">
+        <v>111.93</v>
+      </c>
+      <c r="L703">
+        <v>117.55</v>
+      </c>
+      <c r="M703">
+        <v>95.66</v>
+      </c>
+    </row>
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <f t="shared" si="0"/>
         <v>42977</v>
       </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B704">
+        <v>107.79</v>
+      </c>
+      <c r="E704">
+        <v>120.48</v>
+      </c>
+      <c r="F704">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="J704">
+        <v>112.77</v>
+      </c>
+      <c r="K704">
+        <v>111.24</v>
+      </c>
+      <c r="L704">
+        <v>118.57</v>
+      </c>
+      <c r="M704">
+        <v>96.01</v>
+      </c>
+    </row>
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <f t="shared" si="0"/>
         <v>42978</v>
       </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B705">
+        <v>108.42</v>
+      </c>
+      <c r="E705">
+        <v>120.81</v>
+      </c>
+      <c r="F705">
+        <v>149.15</v>
+      </c>
+      <c r="J705">
+        <v>112.98</v>
+      </c>
+      <c r="K705">
+        <v>111.6</v>
+      </c>
+      <c r="L705">
+        <v>119.84</v>
+      </c>
+      <c r="M705">
+        <v>96.49</v>
+      </c>
+    </row>
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <f t="shared" si="0"/>
         <v>42979</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <f t="shared" si="0"/>
         <v>42982</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <f t="shared" si="0"/>
         <v>42983</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <f t="shared" si="0"/>
         <v>42984</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <f t="shared" si="0"/>
         <v>42985</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <f t="shared" si="0"/>
         <v>42986</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <f t="shared" si="0"/>
         <v>42989</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <f t="shared" si="0"/>
         <v>42990</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <f t="shared" si="0"/>
         <v>42991</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <f t="shared" si="0"/>
         <v>42992</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <f t="shared" si="0"/>
         <v>42993</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <f t="shared" si="0"/>
         <v>42996</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <f t="shared" si="0"/>
         <v>42997</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <f t="shared" si="0"/>
         <v>42998</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <f t="shared" si="0"/>
         <v>42999</v>
@@ -40316,26 +41286,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -40357,7 +41330,7 @@
       <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -40380,624 +41353,598 @@
       <c r="A2" s="10">
         <v>42004</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>42034</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>42062</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>42094</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>42124</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>42153</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>42185</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>42216</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>42247</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>42277</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="11">
         <v>1032730051.8176</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="11">
         <v>951947448.69330001</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <v>759631520.32959998</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>143010790.21950001</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="11">
         <v>173299126.132</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="11">
         <v>189942843.95600003</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="11">
         <v>115780067.16090001</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="11">
         <v>82441202.154300004</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>42307</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>42338</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>42369</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>42398</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>42429</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>42460</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="11">
         <v>1070676377.6528</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="11">
         <v>1051526181.2559998</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <v>826576927.40610003</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="11">
         <v>153245922.97420001</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="11">
         <v>185396246.56799999</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="11">
         <v>190829844.35460001</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="11">
         <v>117743807.28799999</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="11">
         <v>92053974.208999991</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="11">
         <v>59274883.987199999</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>42489</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>42521</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>42551</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>42580</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>42613</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>42643</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="11">
         <v>1123702137.9438</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="11">
         <v>1234503908.7060001</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="11">
         <v>938539332.37979996</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="11">
         <v>167218497.99070001</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="11">
         <v>213924531.02849999</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="11">
         <v>192831347.412</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="11">
         <v>125279294.3274</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="11">
         <v>124563032.34680001</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="11">
         <v>69259047</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="11">
         <v>101021677.98450001</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>42674</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>42704</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>42734</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>42766</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>42794</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>42825</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="11">
         <v>1201663266.8796</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="11">
         <v>1444158015.3039</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="11">
         <v>1059244739.5383999</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="11">
         <v>180823446.49950001</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="11">
         <v>240388444.00800002</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="11">
         <v>209070024.215</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="11">
         <v>144491734.53</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="11">
         <v>195083541.77000001</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="11">
         <v>75569861.39760001</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="11">
         <v>115567637.11850001</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>42853</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>42886</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>42916</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="11">
         <v>1237720000</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="11">
         <v>1560840000</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="11">
         <v>1126410000</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="11">
         <v>191490000</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="11">
         <v>261080000.00000006</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="11">
         <v>216830000.00000003</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="11">
         <v>163890000</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="11">
         <v>206620000</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="11">
         <v>76330000</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="11">
         <v>123869999.99999999</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="11">
         <v>220380000</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="11">
         <v>175400000</v>
       </c>
     </row>
@@ -41005,40 +41952,40 @@
       <c r="A33" s="10">
         <v>42947</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="11">
         <v>1232159999.2075</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="11">
         <v>1591179997.8809998</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="11">
         <v>1139173442.0711999</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="11">
         <v>193178679.87399998</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="11">
         <v>266989999.36050001</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="11">
         <v>219009999.26000002</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="11">
         <v>166430000.20919999</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="11">
         <v>211759999.05559999</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="11">
         <v>77099999.4102</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="11">
         <v>125130000.21780002</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="11">
         <v>220429999.8831</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="11">
         <v>169138280.31</v>
       </c>
     </row>
@@ -41046,66 +41993,988 @@
       <c r="A34" s="10">
         <v>42978</v>
       </c>
+      <c r="B34" s="11">
+        <v>1226640000</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1623000000</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1127679999.9999998</v>
+      </c>
+      <c r="E34" s="11">
+        <v>195180000</v>
+      </c>
+      <c r="F34" s="11">
+        <v>275450000</v>
+      </c>
+      <c r="G34" s="11">
+        <v>219900000</v>
+      </c>
+      <c r="H34" s="11">
+        <v>171020000</v>
+      </c>
+      <c r="I34" s="11">
+        <v>221960000</v>
+      </c>
+      <c r="J34" s="11">
+        <v>94280000</v>
+      </c>
+      <c r="K34" s="11">
+        <v>125750000</v>
+      </c>
+      <c r="L34" s="11">
+        <v>222910000</v>
+      </c>
+      <c r="M34" s="11">
+        <v>162900000</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>43007</v>
       </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>43039</v>
       </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>43069</v>
       </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>43098</v>
       </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>43131</v>
       </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>43159</v>
       </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>43189</v>
       </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>43220</v>
       </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>43251</v>
       </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>43280</v>
       </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>43312</v>
       </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>43343</v>
       </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41114,26 +42983,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="23" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
@@ -41320,160 +43192,284 @@
       <c r="A20" s="10">
         <v>42551</v>
       </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>42580</v>
       </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>42613</v>
       </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>42643</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="14">
         <v>1791932459.0448003</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="14">
         <v>0</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="14">
         <v>0</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="14">
         <v>64383994.464299999</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="14">
         <v>611317468.80660009</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="14">
         <v>0</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="14">
         <v>0</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="14">
         <v>0</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="14">
         <v>60305833.500000007</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="14">
         <v>205527614.70449999</v>
       </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>42674</v>
       </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>42704</v>
       </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>42734</v>
       </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>42766</v>
       </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>42794</v>
       </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>42825</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="14">
         <v>1879103196.0335999</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="14">
         <v>0</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="14">
         <v>0</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="14">
         <v>77047052.486400008</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="14">
         <v>587032911.49199998</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="14">
         <v>0</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="14">
         <v>0</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="14">
         <v>0</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="14">
         <v>64822960.927000001</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="14">
         <v>342856180.97640002</v>
       </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>42853</v>
       </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>42886</v>
       </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>42916</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="14">
         <v>1952270000.0000002</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="14">
         <v>0</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="14">
         <v>0</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="14">
         <v>83039999.999999985</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="14">
         <v>602760000</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="14">
         <v>0</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="14">
         <v>0</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="14">
         <v>0</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="14">
         <v>65440000</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="14">
         <v>362060000</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="14">
         <v>35980000</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="14">
         <v>91330000</v>
       </c>
     </row>
@@ -41481,40 +43477,40 @@
       <c r="A33" s="10">
         <v>42947</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="14">
         <v>1943427656.628</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="14">
         <v>0</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="14">
         <v>0</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="14">
         <v>83776755.407799989</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="14">
         <v>605599999.67449999</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="14">
         <v>0</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="14">
         <v>0</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="14">
         <v>0</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="14">
         <v>65589999.793200001</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="14">
         <v>366269999.60829997</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="14">
         <v>35729999.487599999</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="14">
         <v>90387386.286500007</v>
       </c>
     </row>
@@ -41522,66 +43518,260 @@
       <c r="A34" s="10">
         <v>42978</v>
       </c>
+      <c r="B34" s="14">
+        <v>1907770000</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>85180000</v>
+      </c>
+      <c r="F34" s="14">
+        <v>612640000</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <v>0</v>
+      </c>
+      <c r="I34" s="14">
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
+        <v>86000000</v>
+      </c>
+      <c r="K34" s="14">
+        <v>373130000</v>
+      </c>
+      <c r="L34" s="14">
+        <v>35700000</v>
+      </c>
+      <c r="M34" s="14">
+        <v>87460000</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>43007</v>
       </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>43039</v>
       </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>43069</v>
       </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>43098</v>
       </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>43131</v>
       </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>43159</v>
       </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>43189</v>
       </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>43220</v>
       </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>43251</v>
       </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>43280</v>
       </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>43312</v>
       </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>43343</v>
       </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41592,8 +43782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M860"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A677" workbookViewId="0">
+      <selection activeCell="O696" sqref="O696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69828,193 +72018,805 @@
         <v>262650000</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <f t="shared" si="0"/>
         <v>42956</v>
       </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B689" s="5">
+        <v>3223410000</v>
+      </c>
+      <c r="C689" s="5">
+        <v>1621070000</v>
+      </c>
+      <c r="D689" s="5">
+        <v>1156880000</v>
+      </c>
+      <c r="E689" s="5">
+        <v>280210000</v>
+      </c>
+      <c r="F689" s="5">
+        <v>878250000</v>
+      </c>
+      <c r="G689" s="5">
+        <v>222770000</v>
+      </c>
+      <c r="H689" s="5">
+        <v>170430000</v>
+      </c>
+      <c r="I689" s="5">
+        <v>214210000</v>
+      </c>
+      <c r="J689" s="5">
+        <v>143530000</v>
+      </c>
+      <c r="K689" s="5">
+        <v>498240000</v>
+      </c>
+      <c r="L689" s="5">
+        <v>259070000</v>
+      </c>
+      <c r="M689" s="5">
+        <v>260370000</v>
+      </c>
+    </row>
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <f t="shared" si="0"/>
         <v>42957</v>
       </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B690" s="5">
+        <v>3204380000</v>
+      </c>
+      <c r="C690" s="5">
+        <v>1615810000</v>
+      </c>
+      <c r="D690" s="5">
+        <v>1153090000</v>
+      </c>
+      <c r="E690" s="5">
+        <v>279850000</v>
+      </c>
+      <c r="F690" s="5">
+        <v>879030000</v>
+      </c>
+      <c r="G690" s="5">
+        <v>221570000</v>
+      </c>
+      <c r="H690" s="5">
+        <v>168670000</v>
+      </c>
+      <c r="I690" s="5">
+        <v>213610000</v>
+      </c>
+      <c r="J690" s="5">
+        <v>143300000</v>
+      </c>
+      <c r="K690" s="5">
+        <v>496690000</v>
+      </c>
+      <c r="L690" s="5">
+        <v>258530000</v>
+      </c>
+      <c r="M690" s="5">
+        <v>259590000</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <f t="shared" si="0"/>
         <v>42958</v>
       </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B691" s="5">
+        <v>3192200000</v>
+      </c>
+      <c r="C691" s="5">
+        <v>1614290000</v>
+      </c>
+      <c r="D691" s="5">
+        <v>1152050000</v>
+      </c>
+      <c r="E691" s="5">
+        <v>279200000</v>
+      </c>
+      <c r="F691" s="5">
+        <v>879230000</v>
+      </c>
+      <c r="G691" s="5">
+        <v>220860000</v>
+      </c>
+      <c r="H691" s="5">
+        <v>168290000</v>
+      </c>
+      <c r="I691" s="5">
+        <v>212840000</v>
+      </c>
+      <c r="J691" s="5">
+        <v>143360000</v>
+      </c>
+      <c r="K691" s="5">
+        <v>495310000</v>
+      </c>
+      <c r="L691" s="5">
+        <v>255120000</v>
+      </c>
+      <c r="M691" s="5">
+        <v>256560000</v>
+      </c>
+    </row>
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <f t="shared" si="0"/>
         <v>42961</v>
       </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B692" s="5">
+        <v>3146610000</v>
+      </c>
+      <c r="C692" s="5">
+        <v>1601980000</v>
+      </c>
+      <c r="D692" s="5">
+        <v>1145240000</v>
+      </c>
+      <c r="E692" s="5">
+        <v>277590000</v>
+      </c>
+      <c r="F692" s="5">
+        <v>880010000</v>
+      </c>
+      <c r="G692" s="5">
+        <v>217890000</v>
+      </c>
+      <c r="H692" s="5">
+        <v>166440000</v>
+      </c>
+      <c r="I692" s="5">
+        <v>210030000</v>
+      </c>
+      <c r="J692" s="5">
+        <v>142960000</v>
+      </c>
+      <c r="K692" s="5">
+        <v>492270000</v>
+      </c>
+      <c r="L692" s="5">
+        <v>257140000</v>
+      </c>
+      <c r="M692" s="5">
+        <v>257270000</v>
+      </c>
+    </row>
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <f t="shared" si="0"/>
         <v>42962</v>
       </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B693" s="5">
+        <v>3166650000</v>
+      </c>
+      <c r="C693" s="5">
+        <v>1608410000</v>
+      </c>
+      <c r="D693" s="5">
+        <v>1149610000</v>
+      </c>
+      <c r="E693" s="5">
+        <v>278280000</v>
+      </c>
+      <c r="F693" s="5">
+        <v>879440000</v>
+      </c>
+      <c r="G693" s="5">
+        <v>219070000</v>
+      </c>
+      <c r="H693" s="5">
+        <v>169400000</v>
+      </c>
+      <c r="I693" s="5">
+        <v>211290000</v>
+      </c>
+      <c r="J693" s="5">
+        <v>143060000</v>
+      </c>
+      <c r="K693" s="5">
+        <v>494180000</v>
+      </c>
+      <c r="L693" s="5">
+        <v>259230000</v>
+      </c>
+      <c r="M693" s="5">
+        <v>258390000</v>
+      </c>
+    </row>
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <f t="shared" si="0"/>
         <v>42963</v>
       </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B694" s="5">
+        <v>3184630000</v>
+      </c>
+      <c r="C694" s="5">
+        <v>1617550000</v>
+      </c>
+      <c r="D694" s="5">
+        <v>1154630000</v>
+      </c>
+      <c r="E694" s="5">
+        <v>279830000</v>
+      </c>
+      <c r="F694" s="5">
+        <v>881260000</v>
+      </c>
+      <c r="G694" s="5">
+        <v>219930000</v>
+      </c>
+      <c r="H694" s="5">
+        <v>170520000</v>
+      </c>
+      <c r="I694" s="5">
+        <v>212740000</v>
+      </c>
+      <c r="J694" s="5">
+        <v>143480000</v>
+      </c>
+      <c r="K694" s="5">
+        <v>496530000</v>
+      </c>
+      <c r="L694" s="5">
+        <v>261870000</v>
+      </c>
+      <c r="M694" s="5">
+        <v>260190000</v>
+      </c>
+    </row>
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <f t="shared" si="0"/>
         <v>42964</v>
       </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B695" s="5">
+        <v>3200570000</v>
+      </c>
+      <c r="C695" s="5">
+        <v>1620670000</v>
+      </c>
+      <c r="D695" s="5">
+        <v>1158640000</v>
+      </c>
+      <c r="E695" s="5">
+        <v>280580000</v>
+      </c>
+      <c r="F695" s="5">
+        <v>881530000</v>
+      </c>
+      <c r="G695" s="5">
+        <v>221300000</v>
+      </c>
+      <c r="H695" s="5">
+        <v>171220000</v>
+      </c>
+      <c r="I695" s="5">
+        <v>213970000</v>
+      </c>
+      <c r="J695" s="5">
+        <v>143750000</v>
+      </c>
+      <c r="K695" s="5">
+        <v>497810000</v>
+      </c>
+      <c r="L695" s="5">
+        <v>262310000</v>
+      </c>
+      <c r="M695" s="5">
+        <v>260010000</v>
+      </c>
+    </row>
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <f t="shared" si="0"/>
         <v>42965</v>
       </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B696" s="5">
+        <v>3199130000</v>
+      </c>
+      <c r="C696" s="5">
+        <v>1623800000</v>
+      </c>
+      <c r="D696" s="5">
+        <v>1159880000</v>
+      </c>
+      <c r="E696" s="5">
+        <v>280960000</v>
+      </c>
+      <c r="F696" s="5">
+        <v>882520000</v>
+      </c>
+      <c r="G696" s="5">
+        <v>221120000</v>
+      </c>
+      <c r="H696" s="5">
+        <v>171280000</v>
+      </c>
+      <c r="I696" s="5">
+        <v>214800000</v>
+      </c>
+      <c r="J696" s="5">
+        <v>143790000</v>
+      </c>
+      <c r="K696" s="5">
+        <v>498270000</v>
+      </c>
+      <c r="L696" s="5">
+        <v>258980000</v>
+      </c>
+      <c r="M696" s="5">
+        <v>256540000</v>
+      </c>
+    </row>
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <f t="shared" si="0"/>
         <v>42968</v>
       </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B697" s="5">
+        <v>3162800000</v>
+      </c>
+      <c r="C697" s="5">
+        <v>1613000000</v>
+      </c>
+      <c r="D697" s="5">
+        <v>1153320000</v>
+      </c>
+      <c r="E697" s="5">
+        <v>279770000</v>
+      </c>
+      <c r="F697" s="5">
+        <v>883120000</v>
+      </c>
+      <c r="G697" s="5">
+        <v>218800000</v>
+      </c>
+      <c r="H697" s="5">
+        <v>169110000</v>
+      </c>
+      <c r="I697" s="5">
+        <v>213240000</v>
+      </c>
+      <c r="J697" s="5">
+        <v>143640000</v>
+      </c>
+      <c r="K697" s="5">
+        <v>495500000</v>
+      </c>
+      <c r="L697" s="5">
+        <v>258970000</v>
+      </c>
+      <c r="M697" s="5">
+        <v>256160000</v>
+      </c>
+    </row>
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <f t="shared" si="0"/>
         <v>42969</v>
       </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B698" s="5">
+        <v>3167260000</v>
+      </c>
+      <c r="C698" s="5">
+        <v>1613740000</v>
+      </c>
+      <c r="D698" s="5">
+        <v>1153780000</v>
+      </c>
+      <c r="E698" s="5">
+        <v>279940000</v>
+      </c>
+      <c r="F698" s="5">
+        <v>884000000</v>
+      </c>
+      <c r="G698" s="5">
+        <v>218960000</v>
+      </c>
+      <c r="H698" s="5">
+        <v>169460000</v>
+      </c>
+      <c r="I698" s="5">
+        <v>213570000</v>
+      </c>
+      <c r="J698" s="5">
+        <v>143510000</v>
+      </c>
+      <c r="K698" s="5">
+        <v>496400000</v>
+      </c>
+      <c r="L698" s="5">
+        <v>260420000</v>
+      </c>
+      <c r="M698" s="5">
+        <v>252460000</v>
+      </c>
+    </row>
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <f t="shared" si="0"/>
         <v>42970</v>
       </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B699" s="5">
+        <v>3164320000</v>
+      </c>
+      <c r="C699" s="5">
+        <v>1618660000</v>
+      </c>
+      <c r="D699" s="5">
+        <v>1156260000</v>
+      </c>
+      <c r="E699" s="5">
+        <v>279660000</v>
+      </c>
+      <c r="F699" s="5">
+        <v>884880000</v>
+      </c>
+      <c r="G699" s="5">
+        <v>219640000</v>
+      </c>
+      <c r="H699" s="5">
+        <v>170620000</v>
+      </c>
+      <c r="I699" s="5">
+        <v>215570000</v>
+      </c>
+      <c r="J699" s="5">
+        <v>143690000</v>
+      </c>
+      <c r="K699" s="5">
+        <v>497830000</v>
+      </c>
+      <c r="L699" s="5">
+        <v>259100000</v>
+      </c>
+      <c r="M699" s="5">
+        <v>251510000</v>
+      </c>
+    </row>
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <f t="shared" si="0"/>
         <v>42971</v>
       </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B700" s="5">
+        <v>3176820000</v>
+      </c>
+      <c r="C700" s="5">
+        <v>1625170000</v>
+      </c>
+      <c r="D700" s="5">
+        <v>1160560000</v>
+      </c>
+      <c r="E700" s="5">
+        <v>280470000</v>
+      </c>
+      <c r="F700" s="5">
+        <v>885140000</v>
+      </c>
+      <c r="G700" s="5">
+        <v>220340000</v>
+      </c>
+      <c r="H700" s="5">
+        <v>171970000</v>
+      </c>
+      <c r="I700" s="5">
+        <v>216450000</v>
+      </c>
+      <c r="J700" s="5">
+        <v>143900000</v>
+      </c>
+      <c r="K700" s="5">
+        <v>498890000</v>
+      </c>
+      <c r="L700" s="5">
+        <v>258450000</v>
+      </c>
+      <c r="M700" s="5">
+        <v>252150000</v>
+      </c>
+    </row>
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <f t="shared" si="0"/>
         <v>42972</v>
       </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B701" s="5">
+        <v>3149400000</v>
+      </c>
+      <c r="C701" s="5">
+        <v>1624030000</v>
+      </c>
+      <c r="D701" s="5">
+        <v>1127910000</v>
+      </c>
+      <c r="E701" s="5">
+        <v>280650000</v>
+      </c>
+      <c r="F701" s="5">
+        <v>886170000</v>
+      </c>
+      <c r="G701" s="5">
+        <v>220490000</v>
+      </c>
+      <c r="H701" s="5">
+        <v>171770000</v>
+      </c>
+      <c r="I701" s="5">
+        <v>222470000</v>
+      </c>
+      <c r="J701" s="5">
+        <v>180230000</v>
+      </c>
+      <c r="K701" s="5">
+        <v>499740000</v>
+      </c>
+      <c r="L701" s="5">
+        <v>257970000</v>
+      </c>
+      <c r="M701" s="5">
+        <v>252780000</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <f t="shared" si="0"/>
         <v>42975</v>
       </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B702" s="5">
+        <v>3149400000</v>
+      </c>
+      <c r="C702" s="5">
+        <v>1624030000</v>
+      </c>
+      <c r="D702" s="5">
+        <v>1127910000</v>
+      </c>
+      <c r="E702" s="5">
+        <v>280650000</v>
+      </c>
+      <c r="F702" s="5">
+        <v>886170000</v>
+      </c>
+      <c r="G702" s="5">
+        <v>220490000</v>
+      </c>
+      <c r="H702" s="5">
+        <v>171770000</v>
+      </c>
+      <c r="I702" s="5">
+        <v>222470000</v>
+      </c>
+      <c r="J702" s="5">
+        <v>180230000</v>
+      </c>
+      <c r="K702" s="5">
+        <v>499740000</v>
+      </c>
+      <c r="L702" s="5">
+        <v>257970000</v>
+      </c>
+      <c r="M702" s="5">
+        <v>252780000</v>
+      </c>
+    </row>
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <f t="shared" si="0"/>
         <v>42976</v>
       </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B703" s="5">
+        <v>3152700000</v>
+      </c>
+      <c r="C703" s="5">
+        <v>1622930000</v>
+      </c>
+      <c r="D703" s="5">
+        <v>1128370000</v>
+      </c>
+      <c r="E703" s="5">
+        <v>280770000</v>
+      </c>
+      <c r="F703" s="5">
+        <v>886240000</v>
+      </c>
+      <c r="G703" s="5">
+        <v>220500000</v>
+      </c>
+      <c r="H703" s="5">
+        <v>171980000</v>
+      </c>
+      <c r="I703" s="5">
+        <v>222810000</v>
+      </c>
+      <c r="J703" s="5">
+        <v>180280000</v>
+      </c>
+      <c r="K703" s="5">
+        <v>499990000</v>
+      </c>
+      <c r="L703" s="5">
+        <v>255540000</v>
+      </c>
+      <c r="M703" s="5">
+        <v>248800000</v>
+      </c>
+    </row>
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <f t="shared" si="0"/>
         <v>42977</v>
       </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B704" s="5">
+        <v>3114450000</v>
+      </c>
+      <c r="C704" s="5">
+        <v>1617050000</v>
+      </c>
+      <c r="D704" s="5">
+        <v>1124130000</v>
+      </c>
+      <c r="E704" s="5">
+        <v>279570000</v>
+      </c>
+      <c r="F704" s="5">
+        <v>887870000</v>
+      </c>
+      <c r="G704" s="5">
+        <v>218430000</v>
+      </c>
+      <c r="H704" s="5">
+        <v>170060000</v>
+      </c>
+      <c r="I704" s="5">
+        <v>220750000</v>
+      </c>
+      <c r="J704" s="5">
+        <v>179960000</v>
+      </c>
+      <c r="K704" s="5">
+        <v>497030000</v>
+      </c>
+      <c r="L704" s="5">
+        <v>257520000</v>
+      </c>
+      <c r="M704" s="5">
+        <v>249220000</v>
+      </c>
+    </row>
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <f t="shared" si="0"/>
         <v>42978</v>
       </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B705" s="5">
+        <v>3134410000</v>
+      </c>
+      <c r="C705" s="5">
+        <v>1623000000</v>
+      </c>
+      <c r="D705" s="5">
+        <v>1127680000</v>
+      </c>
+      <c r="E705" s="5">
+        <v>280360000</v>
+      </c>
+      <c r="F705" s="5">
+        <v>888090000</v>
+      </c>
+      <c r="G705" s="5">
+        <v>219900000</v>
+      </c>
+      <c r="H705" s="5">
+        <v>171020000</v>
+      </c>
+      <c r="I705" s="5">
+        <v>221960000</v>
+      </c>
+      <c r="J705" s="5">
+        <v>180280000</v>
+      </c>
+      <c r="K705" s="5">
+        <v>498880000</v>
+      </c>
+      <c r="L705" s="5">
+        <v>258610000</v>
+      </c>
+      <c r="M705" s="5">
+        <v>250360000</v>
+      </c>
+    </row>
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <f t="shared" si="0"/>
         <v>42979</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <f t="shared" si="0"/>
         <v>42982</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <f t="shared" si="0"/>
         <v>42983</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <f t="shared" si="0"/>
         <v>42984</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <f t="shared" si="0"/>
         <v>42985</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <f t="shared" si="0"/>
         <v>42986</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <f t="shared" si="0"/>
         <v>42989</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <f t="shared" si="0"/>
         <v>42990</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <f t="shared" si="0"/>
         <v>42991</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <f t="shared" si="0"/>
         <v>42992</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <f t="shared" si="0"/>
         <v>42993</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <f t="shared" si="0"/>
         <v>42996</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <f t="shared" si="0"/>
         <v>42997</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <f t="shared" si="0"/>
         <v>42998</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <f t="shared" si="0"/>
         <v>42999</v>
@@ -71298,7 +74100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2092BF24-7583-4D0F-A021-44D7068EA9C7}">
   <dimension ref="A1:C319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>

--- a/HL funds data.xlsx
+++ b/HL funds data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="28800" windowHeight="12195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1680" windowWidth="28800" windowHeight="12195" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc price" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="account number" sheetId="12" r:id="rId6"/>
     <sheet name="trades" sheetId="13" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -123,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -141,6 +141,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M793"/>
   <sheetViews>
-    <sheetView topLeftCell="A674" workbookViewId="0">
-      <selection activeCell="B710" sqref="B710"/>
+    <sheetView topLeftCell="A704" workbookViewId="0">
+      <selection activeCell="G730" sqref="G730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25227,182 +25231,938 @@
         <f t="shared" si="0"/>
         <v>42979</v>
       </c>
+      <c r="B706" s="15">
+        <v>194.26</v>
+      </c>
+      <c r="C706" s="11">
+        <v>362.94</v>
+      </c>
+      <c r="D706" s="16">
+        <v>232.62</v>
+      </c>
+      <c r="E706" s="17">
+        <v>170.64</v>
+      </c>
+      <c r="F706" s="11">
+        <v>185.39</v>
+      </c>
+      <c r="G706" s="11">
+        <v>130.43</v>
+      </c>
+      <c r="H706" s="11">
+        <v>144.25</v>
+      </c>
+      <c r="I706" s="11">
+        <v>129.99</v>
+      </c>
+      <c r="J706" s="11">
+        <v>114.64</v>
+      </c>
+      <c r="K706" s="11">
+        <v>118.08</v>
+      </c>
+      <c r="L706" s="11">
+        <v>121.18</v>
+      </c>
+      <c r="M706" s="11">
+        <v>98.45</v>
+      </c>
     </row>
     <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <f t="shared" si="0"/>
         <v>42982</v>
       </c>
+      <c r="B707" s="15">
+        <v>195.06</v>
+      </c>
+      <c r="C707" s="11">
+        <v>364.04</v>
+      </c>
+      <c r="D707" s="16">
+        <v>233.25</v>
+      </c>
+      <c r="E707" s="17">
+        <v>171.03</v>
+      </c>
+      <c r="F707" s="11">
+        <v>185.38</v>
+      </c>
+      <c r="G707" s="11">
+        <v>131.07</v>
+      </c>
+      <c r="H707" s="11">
+        <v>145.35</v>
+      </c>
+      <c r="I707" s="11">
+        <v>129.93</v>
+      </c>
+      <c r="J707" s="11">
+        <v>114.73</v>
+      </c>
+      <c r="K707" s="11">
+        <v>118.42</v>
+      </c>
+      <c r="L707" s="11">
+        <v>120.92</v>
+      </c>
+      <c r="M707" s="11">
+        <v>98.24</v>
+      </c>
     </row>
     <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <f t="shared" si="0"/>
         <v>42983</v>
       </c>
+      <c r="B708" s="15">
+        <v>194.49</v>
+      </c>
+      <c r="C708" s="11">
+        <v>363.43</v>
+      </c>
+      <c r="D708" s="16">
+        <v>232.79</v>
+      </c>
+      <c r="E708" s="17">
+        <v>170.69</v>
+      </c>
+      <c r="F708" s="11">
+        <v>185.3</v>
+      </c>
+      <c r="G708" s="11">
+        <v>130.62</v>
+      </c>
+      <c r="H708" s="11">
+        <v>144.58000000000001</v>
+      </c>
+      <c r="I708" s="11">
+        <v>129.63</v>
+      </c>
+      <c r="J708" s="11">
+        <v>114.62</v>
+      </c>
+      <c r="K708" s="11">
+        <v>118.22</v>
+      </c>
+      <c r="L708" s="11">
+        <v>121.2</v>
+      </c>
+      <c r="M708" s="11">
+        <v>98.12</v>
+      </c>
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <f t="shared" si="0"/>
         <v>42984</v>
       </c>
+      <c r="B709" s="15">
+        <v>194.01</v>
+      </c>
+      <c r="C709" s="11">
+        <v>362.7</v>
+      </c>
+      <c r="D709" s="16">
+        <v>232.39</v>
+      </c>
+      <c r="E709" s="17">
+        <v>170.51</v>
+      </c>
+      <c r="F709" s="11">
+        <v>185.33</v>
+      </c>
+      <c r="G709" s="11">
+        <v>130.46</v>
+      </c>
+      <c r="H709" s="11">
+        <v>144.47999999999999</v>
+      </c>
+      <c r="I709" s="11">
+        <v>129.52000000000001</v>
+      </c>
+      <c r="J709" s="11">
+        <v>114.56</v>
+      </c>
+      <c r="K709" s="11">
+        <v>118.09</v>
+      </c>
+      <c r="L709" s="11">
+        <v>120.38</v>
+      </c>
+      <c r="M709" s="11">
+        <v>97.34</v>
+      </c>
     </row>
     <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <f t="shared" si="0"/>
         <v>42985</v>
       </c>
+      <c r="B710" s="15">
+        <v>192.22</v>
+      </c>
+      <c r="C710" s="11">
+        <v>360.26</v>
+      </c>
+      <c r="D710" s="16">
+        <v>230.94</v>
+      </c>
+      <c r="E710" s="17">
+        <v>169.85</v>
+      </c>
+      <c r="F710" s="11">
+        <v>185.49</v>
+      </c>
+      <c r="G710" s="11">
+        <v>129.88</v>
+      </c>
+      <c r="H710" s="11">
+        <v>143.11000000000001</v>
+      </c>
+      <c r="I710" s="11">
+        <v>128.41</v>
+      </c>
+      <c r="J710" s="11">
+        <v>114.22</v>
+      </c>
+      <c r="K710" s="11">
+        <v>117.51</v>
+      </c>
+      <c r="L710" s="11">
+        <v>120.32</v>
+      </c>
+      <c r="M710" s="11">
+        <v>97.95</v>
+      </c>
     </row>
     <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <f t="shared" si="0"/>
         <v>42986</v>
       </c>
+      <c r="B711" s="15">
+        <v>193.42</v>
+      </c>
+      <c r="C711" s="11">
+        <v>360.95</v>
+      </c>
+      <c r="D711" s="16">
+        <v>231.46</v>
+      </c>
+      <c r="E711" s="17">
+        <v>170.17</v>
+      </c>
+      <c r="F711" s="11">
+        <v>185.34</v>
+      </c>
+      <c r="G711" s="11">
+        <v>130.31</v>
+      </c>
+      <c r="H711" s="11">
+        <v>144.36000000000001</v>
+      </c>
+      <c r="I711" s="11">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="J711" s="11">
+        <v>114.36</v>
+      </c>
+      <c r="K711" s="11">
+        <v>117.95</v>
+      </c>
+      <c r="L711" s="11">
+        <v>120.59</v>
+      </c>
+      <c r="M711" s="11">
+        <v>98.34</v>
+      </c>
     </row>
     <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <f t="shared" si="0"/>
         <v>42989</v>
       </c>
+      <c r="B712" s="15">
+        <v>192.66</v>
+      </c>
+      <c r="C712" s="11">
+        <v>360.52</v>
+      </c>
+      <c r="D712" s="16">
+        <v>231.24</v>
+      </c>
+      <c r="E712" s="17">
+        <v>170.02</v>
+      </c>
+      <c r="F712" s="11">
+        <v>185.62</v>
+      </c>
+      <c r="G712" s="11">
+        <v>130.15</v>
+      </c>
+      <c r="H712" s="11">
+        <v>144.12</v>
+      </c>
+      <c r="I712" s="11">
+        <v>128.32</v>
+      </c>
+      <c r="J712" s="11">
+        <v>114.23</v>
+      </c>
+      <c r="K712" s="11">
+        <v>117.7</v>
+      </c>
+      <c r="L712" s="11">
+        <v>121.83</v>
+      </c>
+      <c r="M712" s="11">
+        <v>98.74</v>
+      </c>
     </row>
     <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <f t="shared" si="0"/>
         <v>42990</v>
       </c>
+      <c r="B713" s="15">
+        <v>194.19</v>
+      </c>
+      <c r="C713" s="11">
+        <v>360.81</v>
+      </c>
+      <c r="D713" s="16">
+        <v>231.51</v>
+      </c>
+      <c r="E713" s="17">
+        <v>170.5</v>
+      </c>
+      <c r="F713" s="11">
+        <v>185.34</v>
+      </c>
+      <c r="G713" s="11">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="H713" s="11">
+        <v>144.82</v>
+      </c>
+      <c r="I713" s="11">
+        <v>128.19</v>
+      </c>
+      <c r="J713" s="11">
+        <v>114.26</v>
+      </c>
+      <c r="K713" s="11">
+        <v>118.03</v>
+      </c>
+      <c r="L713" s="11">
+        <v>121.2</v>
+      </c>
+      <c r="M713" s="11">
+        <v>98.21</v>
+      </c>
     </row>
     <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <f t="shared" si="0"/>
         <v>42991</v>
       </c>
+      <c r="B714" s="15">
+        <v>193.88</v>
+      </c>
+      <c r="C714" s="11">
+        <v>360.21</v>
+      </c>
+      <c r="D714" s="16">
+        <v>231.16</v>
+      </c>
+      <c r="E714" s="17">
+        <v>170.22</v>
+      </c>
+      <c r="F714" s="11">
+        <v>185.03</v>
+      </c>
+      <c r="G714" s="11">
+        <v>130.38</v>
+      </c>
+      <c r="H714" s="11">
+        <v>144.06</v>
+      </c>
+      <c r="I714" s="11">
+        <v>128.11000000000001</v>
+      </c>
+      <c r="J714" s="11">
+        <v>114</v>
+      </c>
+      <c r="K714" s="11">
+        <v>117.86</v>
+      </c>
+      <c r="L714" s="11">
+        <v>120.68</v>
+      </c>
+      <c r="M714" s="11">
+        <v>97.78</v>
+      </c>
     </row>
     <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <f t="shared" si="0"/>
         <v>42992</v>
       </c>
+      <c r="B715" s="15">
+        <v>193.84</v>
+      </c>
+      <c r="C715" s="11">
+        <v>360.78</v>
+      </c>
+      <c r="D715" s="16">
+        <v>231.57</v>
+      </c>
+      <c r="E715" s="17">
+        <v>170.37</v>
+      </c>
+      <c r="F715" s="11">
+        <v>184.88</v>
+      </c>
+      <c r="G715" s="11">
+        <v>130.12</v>
+      </c>
+      <c r="H715" s="11">
+        <v>144.34</v>
+      </c>
+      <c r="I715" s="11">
+        <v>128.34</v>
+      </c>
+      <c r="J715" s="11">
+        <v>114.16</v>
+      </c>
+      <c r="K715" s="11">
+        <v>117.79</v>
+      </c>
+      <c r="L715" s="11">
+        <v>121.58</v>
+      </c>
+      <c r="M715" s="11">
+        <v>98.27</v>
+      </c>
     </row>
     <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <f t="shared" si="0"/>
         <v>42993</v>
       </c>
+      <c r="B716" s="15">
+        <v>193.72</v>
+      </c>
+      <c r="C716" s="11">
+        <v>358.16</v>
+      </c>
+      <c r="D716" s="16">
+        <v>230.32</v>
+      </c>
+      <c r="E716" s="17">
+        <v>170.19</v>
+      </c>
+      <c r="F716" s="11">
+        <v>184.77</v>
+      </c>
+      <c r="G716" s="11">
+        <v>129.97999999999999</v>
+      </c>
+      <c r="H716" s="11">
+        <v>144.02000000000001</v>
+      </c>
+      <c r="I716" s="11">
+        <v>127.75</v>
+      </c>
+      <c r="J716" s="11">
+        <v>113.94</v>
+      </c>
+      <c r="K716" s="11">
+        <v>117.73</v>
+      </c>
+      <c r="L716" s="11">
+        <v>119.16</v>
+      </c>
+      <c r="M716" s="11">
+        <v>96.8</v>
+      </c>
     </row>
     <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <f t="shared" si="0"/>
         <v>42996</v>
       </c>
+      <c r="B717" s="15">
+        <v>190.35</v>
+      </c>
+      <c r="C717" s="11">
+        <v>352.81</v>
+      </c>
+      <c r="D717" s="16">
+        <v>227.33</v>
+      </c>
+      <c r="E717" s="17">
+        <v>168.34</v>
+      </c>
+      <c r="F717" s="11">
+        <v>183.88</v>
+      </c>
+      <c r="G717" s="11">
+        <v>128.51</v>
+      </c>
+      <c r="H717" s="11">
+        <v>140.74</v>
+      </c>
+      <c r="I717" s="11">
+        <v>125.28</v>
+      </c>
+      <c r="J717" s="11">
+        <v>112.87</v>
+      </c>
+      <c r="K717" s="11">
+        <v>116.28</v>
+      </c>
+      <c r="L717" s="11">
+        <v>119.46</v>
+      </c>
+      <c r="M717" s="11">
+        <v>97.01</v>
+      </c>
     </row>
     <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <f t="shared" si="0"/>
         <v>42997</v>
       </c>
+      <c r="B718" s="15">
+        <v>191.34</v>
+      </c>
+      <c r="C718" s="11">
+        <v>354.17</v>
+      </c>
+      <c r="D718" s="16">
+        <v>228.15</v>
+      </c>
+      <c r="E718" s="17">
+        <v>168.79</v>
+      </c>
+      <c r="F718" s="11">
+        <v>183.93</v>
+      </c>
+      <c r="G718" s="11">
+        <v>128.9</v>
+      </c>
+      <c r="H718" s="11">
+        <v>141.59</v>
+      </c>
+      <c r="I718" s="11">
+        <v>126.5</v>
+      </c>
+      <c r="J718" s="11">
+        <v>113.09</v>
+      </c>
+      <c r="K718" s="11">
+        <v>116.63</v>
+      </c>
+      <c r="L718" s="11">
+        <v>119.89</v>
+      </c>
+      <c r="M718" s="11">
+        <v>97.18</v>
+      </c>
     </row>
     <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <f t="shared" si="0"/>
         <v>42998</v>
       </c>
+      <c r="B719" s="15">
+        <v>192.14</v>
+      </c>
+      <c r="C719" s="11">
+        <v>355.59</v>
+      </c>
+      <c r="D719" s="16">
+        <v>229.01</v>
+      </c>
+      <c r="E719" s="17">
+        <v>169.24</v>
+      </c>
+      <c r="F719" s="11">
+        <v>184.08</v>
+      </c>
+      <c r="G719" s="11">
+        <v>129.25</v>
+      </c>
+      <c r="H719" s="11">
+        <v>142.28</v>
+      </c>
+      <c r="I719" s="11">
+        <v>126.53</v>
+      </c>
+      <c r="J719" s="11">
+        <v>113.28</v>
+      </c>
+      <c r="K719" s="11">
+        <v>116.96</v>
+      </c>
+      <c r="L719" s="11">
+        <v>119.96</v>
+      </c>
+      <c r="M719" s="11">
+        <v>97.34</v>
+      </c>
     </row>
     <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <f t="shared" si="0"/>
         <v>42999</v>
       </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B720" s="15">
+        <v>192.36</v>
+      </c>
+      <c r="C720" s="11">
+        <v>355.83</v>
+      </c>
+      <c r="D720" s="16">
+        <v>229.14</v>
+      </c>
+      <c r="E720" s="17">
+        <v>169.31</v>
+      </c>
+      <c r="F720" s="11">
+        <v>184.02</v>
+      </c>
+      <c r="G720" s="11">
+        <v>129.33000000000001</v>
+      </c>
+      <c r="H720" s="11">
+        <v>142.15</v>
+      </c>
+      <c r="I720" s="11">
+        <v>126.41</v>
+      </c>
+      <c r="J720" s="11">
+        <v>113.23</v>
+      </c>
+      <c r="K720" s="11">
+        <v>117.04</v>
+      </c>
+      <c r="L720" s="11">
+        <v>118.92</v>
+      </c>
+      <c r="M720" s="11">
+        <v>96.88</v>
+      </c>
+    </row>
+    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <f t="shared" si="0"/>
         <v>43000</v>
       </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B721" s="15">
+        <v>192.15</v>
+      </c>
+      <c r="C721" s="11">
+        <v>354.94</v>
+      </c>
+      <c r="D721" s="16">
+        <v>228.74</v>
+      </c>
+      <c r="E721" s="17">
+        <v>169.12</v>
+      </c>
+      <c r="F721" s="11">
+        <v>183.87</v>
+      </c>
+      <c r="G721" s="11">
+        <v>128.84</v>
+      </c>
+      <c r="H721" s="11">
+        <v>141.63</v>
+      </c>
+      <c r="I721" s="11">
+        <v>126.4</v>
+      </c>
+      <c r="J721" s="11">
+        <v>113.07</v>
+      </c>
+      <c r="K721" s="11">
+        <v>116.95</v>
+      </c>
+      <c r="L721" s="11">
+        <v>118.93</v>
+      </c>
+      <c r="M721" s="11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <f t="shared" si="0"/>
         <v>43003</v>
       </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B722" s="15">
+        <v>191.96</v>
+      </c>
+      <c r="C722" s="11">
+        <v>354.39</v>
+      </c>
+      <c r="D722" s="16">
+        <v>228.66</v>
+      </c>
+      <c r="E722" s="17">
+        <v>168.96</v>
+      </c>
+      <c r="F722" s="11">
+        <v>183.89</v>
+      </c>
+      <c r="G722" s="11">
+        <v>129.13</v>
+      </c>
+      <c r="H722" s="11">
+        <v>141.91999999999999</v>
+      </c>
+      <c r="I722" s="11">
+        <v>125.39</v>
+      </c>
+      <c r="J722" s="11">
+        <v>113.03</v>
+      </c>
+      <c r="K722" s="11">
+        <v>116.84</v>
+      </c>
+      <c r="L722" s="11">
+        <v>119.4</v>
+      </c>
+      <c r="M722" s="11">
+        <v>97.34</v>
+      </c>
+    </row>
+    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <f t="shared" si="0"/>
         <v>43004</v>
       </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B723" s="15">
+        <v>192.74</v>
+      </c>
+      <c r="C723" s="11">
+        <v>355.44</v>
+      </c>
+      <c r="D723" s="16">
+        <v>229.29</v>
+      </c>
+      <c r="E723" s="17">
+        <v>169.35</v>
+      </c>
+      <c r="F723" s="11">
+        <v>184.02</v>
+      </c>
+      <c r="G723" s="11">
+        <v>129.62</v>
+      </c>
+      <c r="H723" s="11">
+        <v>141.79</v>
+      </c>
+      <c r="I723" s="11">
+        <v>125.33</v>
+      </c>
+      <c r="J723" s="11">
+        <v>113.19</v>
+      </c>
+      <c r="K723" s="11">
+        <v>117.08</v>
+      </c>
+      <c r="L723" s="11">
+        <v>118.62</v>
+      </c>
+      <c r="M723" s="11">
+        <v>97.05</v>
+      </c>
+    </row>
+    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <f t="shared" si="0"/>
         <v>43005</v>
       </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B724" s="15">
+        <v>192.51</v>
+      </c>
+      <c r="C724" s="11">
+        <v>355.14</v>
+      </c>
+      <c r="D724" s="16">
+        <v>229.21</v>
+      </c>
+      <c r="E724" s="17">
+        <v>169.27</v>
+      </c>
+      <c r="F724" s="11">
+        <v>184.31</v>
+      </c>
+      <c r="G724" s="11">
+        <v>129.51</v>
+      </c>
+      <c r="H724" s="11">
+        <v>141.13999999999999</v>
+      </c>
+      <c r="I724" s="11">
+        <v>124.71</v>
+      </c>
+      <c r="J724" s="11">
+        <v>113.31</v>
+      </c>
+      <c r="K724" s="11">
+        <v>117.06</v>
+      </c>
+      <c r="L724" s="11">
+        <v>117.9</v>
+      </c>
+      <c r="M724" s="11">
+        <v>96.89</v>
+      </c>
+    </row>
+    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <f t="shared" si="0"/>
         <v>43006</v>
       </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B725" s="15">
+        <v>192.71</v>
+      </c>
+      <c r="C725" s="11">
+        <v>354.51</v>
+      </c>
+      <c r="D725" s="16">
+        <v>228.91</v>
+      </c>
+      <c r="E725" s="17">
+        <v>169.19</v>
+      </c>
+      <c r="F725" s="11">
+        <v>184.05</v>
+      </c>
+      <c r="G725" s="11">
+        <v>129.27000000000001</v>
+      </c>
+      <c r="H725" s="11">
+        <v>140.72</v>
+      </c>
+      <c r="I725" s="11">
+        <v>124.25</v>
+      </c>
+      <c r="J725" s="11">
+        <v>113.28</v>
+      </c>
+      <c r="K725" s="11">
+        <v>117.1</v>
+      </c>
+      <c r="L725" s="11">
+        <v>118.03</v>
+      </c>
+      <c r="M725" s="11">
+        <v>96.94</v>
+      </c>
+    </row>
+    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <f t="shared" si="0"/>
         <v>43007</v>
       </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B726" s="15">
+        <v>192.61</v>
+      </c>
+      <c r="C726" s="11">
+        <v>355.04</v>
+      </c>
+      <c r="D726" s="16">
+        <v>229.34</v>
+      </c>
+      <c r="E726" s="17">
+        <v>169.25</v>
+      </c>
+      <c r="F726" s="11">
+        <v>183.95</v>
+      </c>
+      <c r="G726" s="11">
+        <v>129.63</v>
+      </c>
+      <c r="H726" s="11">
+        <v>141.5</v>
+      </c>
+      <c r="I726" s="11">
+        <v>123.88</v>
+      </c>
+      <c r="J726" s="11">
+        <v>113.28</v>
+      </c>
+      <c r="K726" s="11">
+        <v>117.05</v>
+      </c>
+      <c r="L726" s="11">
+        <v>119.25</v>
+      </c>
+      <c r="M726" s="11">
+        <v>97.77</v>
+      </c>
+    </row>
+    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <f t="shared" si="0"/>
         <v>43010</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <f t="shared" si="0"/>
         <v>43011</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <f t="shared" si="0"/>
         <v>43012</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <f t="shared" si="0"/>
         <v>43013</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <f t="shared" si="0"/>
         <v>43014</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <f t="shared" si="0"/>
         <v>43017</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <f t="shared" si="0"/>
         <v>43018</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <f t="shared" ref="A734:A791" si="1">WORKDAY(A733,1)</f>
         <v>43019</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <f t="shared" si="1"/>
         <v>43020</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <f t="shared" si="1"/>
         <v>43021</v>
@@ -25753,8 +26513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M850"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A683" workbookViewId="0">
-      <selection activeCell="H698" sqref="H698"/>
+    <sheetView topLeftCell="A704" workbookViewId="0">
+      <selection activeCell="J727" sqref="J727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40591,182 +41351,728 @@
         <f t="shared" si="0"/>
         <v>42979</v>
       </c>
+      <c r="B706" s="8">
+        <v>108.64</v>
+      </c>
+      <c r="C706" s="9"/>
+      <c r="D706" s="9"/>
+      <c r="E706" s="11">
+        <v>120.93</v>
+      </c>
+      <c r="F706" s="11">
+        <v>148.88</v>
+      </c>
+      <c r="G706" s="9"/>
+      <c r="H706" s="9"/>
+      <c r="I706" s="9"/>
+      <c r="J706" s="11">
+        <v>113.23</v>
+      </c>
+      <c r="K706" s="11">
+        <v>111.58</v>
+      </c>
+      <c r="L706" s="11">
+        <v>120.72</v>
+      </c>
+      <c r="M706" s="11">
+        <v>96.69</v>
+      </c>
     </row>
     <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <f t="shared" si="0"/>
         <v>42982</v>
       </c>
+      <c r="B707" s="8">
+        <v>109.09</v>
+      </c>
+      <c r="C707" s="9"/>
+      <c r="D707" s="9"/>
+      <c r="E707" s="11">
+        <v>121.21</v>
+      </c>
+      <c r="F707" s="11">
+        <v>148.88</v>
+      </c>
+      <c r="G707" s="9"/>
+      <c r="H707" s="9"/>
+      <c r="I707" s="9"/>
+      <c r="J707" s="11">
+        <v>113.32</v>
+      </c>
+      <c r="K707" s="11">
+        <v>111.9</v>
+      </c>
+      <c r="L707" s="11">
+        <v>120.46</v>
+      </c>
+      <c r="M707" s="11">
+        <v>96.48</v>
+      </c>
     </row>
     <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <f t="shared" si="0"/>
         <v>42983</v>
       </c>
+      <c r="B708" s="8">
+        <v>108.77</v>
+      </c>
+      <c r="C708" s="9"/>
+      <c r="D708" s="9"/>
+      <c r="E708" s="11">
+        <v>120.97</v>
+      </c>
+      <c r="F708" s="11">
+        <v>148.81</v>
+      </c>
+      <c r="G708" s="9"/>
+      <c r="H708" s="9"/>
+      <c r="I708" s="9"/>
+      <c r="J708" s="11">
+        <v>113.21</v>
+      </c>
+      <c r="K708" s="11">
+        <v>111.71</v>
+      </c>
+      <c r="L708" s="11">
+        <v>120.75</v>
+      </c>
+      <c r="M708" s="11">
+        <v>96.36</v>
+      </c>
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <f t="shared" si="0"/>
         <v>42984</v>
       </c>
+      <c r="B709" s="8">
+        <v>108.5</v>
+      </c>
+      <c r="C709" s="9"/>
+      <c r="D709" s="9"/>
+      <c r="E709" s="11">
+        <v>120.84</v>
+      </c>
+      <c r="F709" s="11">
+        <v>148.84</v>
+      </c>
+      <c r="G709" s="9"/>
+      <c r="H709" s="9"/>
+      <c r="I709" s="9"/>
+      <c r="J709" s="11">
+        <v>113.15</v>
+      </c>
+      <c r="K709" s="11">
+        <v>111.59</v>
+      </c>
+      <c r="L709" s="11">
+        <v>119.94</v>
+      </c>
+      <c r="M709" s="11">
+        <v>95.59</v>
+      </c>
     </row>
     <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <f t="shared" si="0"/>
         <v>42985</v>
       </c>
+      <c r="B710" s="8">
+        <v>107.5</v>
+      </c>
+      <c r="C710" s="9"/>
+      <c r="D710" s="9"/>
+      <c r="E710" s="11">
+        <v>120.37</v>
+      </c>
+      <c r="F710" s="11">
+        <v>148.97</v>
+      </c>
+      <c r="G710" s="9"/>
+      <c r="H710" s="9"/>
+      <c r="I710" s="9"/>
+      <c r="J710" s="11">
+        <v>112.81</v>
+      </c>
+      <c r="K710" s="11">
+        <v>111.04</v>
+      </c>
+      <c r="L710" s="11">
+        <v>119.87</v>
+      </c>
+      <c r="M710" s="11">
+        <v>96.19</v>
+      </c>
     </row>
     <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <f t="shared" si="0"/>
         <v>42986</v>
       </c>
+      <c r="B711" s="8">
+        <v>108.18</v>
+      </c>
+      <c r="C711" s="9"/>
+      <c r="D711" s="9"/>
+      <c r="E711" s="11">
+        <v>120.6</v>
+      </c>
+      <c r="F711" s="11">
+        <v>148.84</v>
+      </c>
+      <c r="G711" s="9"/>
+      <c r="H711" s="9"/>
+      <c r="I711" s="9"/>
+      <c r="J711" s="11">
+        <v>112.95</v>
+      </c>
+      <c r="K711" s="11">
+        <v>111.46</v>
+      </c>
+      <c r="L711" s="11">
+        <v>120.13</v>
+      </c>
+      <c r="M711" s="11">
+        <v>96.59</v>
+      </c>
     </row>
     <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <f t="shared" si="0"/>
         <v>42989</v>
       </c>
+      <c r="B712" s="8">
+        <v>107.75</v>
+      </c>
+      <c r="C712" s="9"/>
+      <c r="D712" s="9"/>
+      <c r="E712" s="11">
+        <v>120.49</v>
+      </c>
+      <c r="F712" s="11">
+        <v>149.07</v>
+      </c>
+      <c r="G712" s="9"/>
+      <c r="H712" s="9"/>
+      <c r="I712" s="9"/>
+      <c r="J712" s="11">
+        <v>112.83</v>
+      </c>
+      <c r="K712" s="11">
+        <v>111.23</v>
+      </c>
+      <c r="L712" s="11">
+        <v>121.37</v>
+      </c>
+      <c r="M712" s="11">
+        <v>96.97</v>
+      </c>
     </row>
     <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <f t="shared" si="0"/>
         <v>42990</v>
       </c>
+      <c r="B713" s="8">
+        <v>108.61</v>
+      </c>
+      <c r="C713" s="9"/>
+      <c r="D713" s="9"/>
+      <c r="E713" s="11">
+        <v>120.83</v>
+      </c>
+      <c r="F713" s="11">
+        <v>148.85</v>
+      </c>
+      <c r="G713" s="9"/>
+      <c r="H713" s="9"/>
+      <c r="I713" s="9"/>
+      <c r="J713" s="11">
+        <v>112.85</v>
+      </c>
+      <c r="K713" s="11">
+        <v>111.54</v>
+      </c>
+      <c r="L713" s="11">
+        <v>120.74</v>
+      </c>
+      <c r="M713" s="11">
+        <v>96.45</v>
+      </c>
     </row>
     <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <f t="shared" si="0"/>
         <v>42991</v>
       </c>
+      <c r="B714" s="8">
+        <v>108.43</v>
+      </c>
+      <c r="C714" s="9"/>
+      <c r="D714" s="9"/>
+      <c r="E714" s="11">
+        <v>120.63</v>
+      </c>
+      <c r="F714" s="11">
+        <v>148.6</v>
+      </c>
+      <c r="G714" s="9"/>
+      <c r="H714" s="9"/>
+      <c r="I714" s="9"/>
+      <c r="J714" s="11">
+        <v>112.6</v>
+      </c>
+      <c r="K714" s="11">
+        <v>111.37</v>
+      </c>
+      <c r="L714" s="11">
+        <v>120.24</v>
+      </c>
+      <c r="M714" s="11">
+        <v>96.02</v>
+      </c>
     </row>
     <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <f t="shared" si="0"/>
         <v>42992</v>
       </c>
+      <c r="B715" s="8">
+        <v>108.41</v>
+      </c>
+      <c r="C715" s="9"/>
+      <c r="D715" s="9"/>
+      <c r="E715" s="11">
+        <v>120.74</v>
+      </c>
+      <c r="F715" s="11">
+        <v>148.47</v>
+      </c>
+      <c r="G715" s="9"/>
+      <c r="H715" s="9"/>
+      <c r="I715" s="9"/>
+      <c r="J715" s="11">
+        <v>112.75</v>
+      </c>
+      <c r="K715" s="11">
+        <v>111.3</v>
+      </c>
+      <c r="L715" s="11">
+        <v>121.14</v>
+      </c>
+      <c r="M715" s="11">
+        <v>96.51</v>
+      </c>
     </row>
     <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <f t="shared" si="0"/>
         <v>42993</v>
       </c>
+      <c r="B716" s="8">
+        <v>108.34</v>
+      </c>
+      <c r="C716" s="9"/>
+      <c r="D716" s="9"/>
+      <c r="E716" s="11">
+        <v>120.62</v>
+      </c>
+      <c r="F716" s="11">
+        <v>148.38999999999999</v>
+      </c>
+      <c r="G716" s="9"/>
+      <c r="H716" s="9"/>
+      <c r="I716" s="9"/>
+      <c r="J716" s="11">
+        <v>112.54</v>
+      </c>
+      <c r="K716" s="11">
+        <v>111.25</v>
+      </c>
+      <c r="L716" s="11">
+        <v>118.71</v>
+      </c>
+      <c r="M716" s="11">
+        <v>95.06</v>
+      </c>
     </row>
     <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <f t="shared" si="0"/>
         <v>42996</v>
       </c>
+      <c r="B717" s="8">
+        <v>106.45</v>
+      </c>
+      <c r="C717" s="9"/>
+      <c r="D717" s="9"/>
+      <c r="E717" s="11">
+        <v>119.3</v>
+      </c>
+      <c r="F717" s="11">
+        <v>147.68</v>
+      </c>
+      <c r="G717" s="9"/>
+      <c r="H717" s="9"/>
+      <c r="I717" s="9"/>
+      <c r="J717" s="11">
+        <v>111.49</v>
+      </c>
+      <c r="K717" s="11">
+        <v>109.88</v>
+      </c>
+      <c r="L717" s="11">
+        <v>119.01</v>
+      </c>
+      <c r="M717" s="11">
+        <v>95.27</v>
+      </c>
     </row>
     <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <f t="shared" si="0"/>
         <v>42997</v>
       </c>
+      <c r="B718" s="8">
+        <v>107.01</v>
+      </c>
+      <c r="C718" s="9"/>
+      <c r="D718" s="9"/>
+      <c r="E718" s="11">
+        <v>119.62</v>
+      </c>
+      <c r="F718" s="11">
+        <v>147.71</v>
+      </c>
+      <c r="G718" s="9"/>
+      <c r="H718" s="9"/>
+      <c r="I718" s="9"/>
+      <c r="J718" s="11">
+        <v>111.7</v>
+      </c>
+      <c r="K718" s="11">
+        <v>110.22</v>
+      </c>
+      <c r="L718" s="11">
+        <v>119.44</v>
+      </c>
+      <c r="M718" s="11">
+        <v>95.44</v>
+      </c>
     </row>
     <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <f t="shared" si="0"/>
         <v>42998</v>
       </c>
+      <c r="B719" s="8">
+        <v>107.46</v>
+      </c>
+      <c r="C719" s="9"/>
+      <c r="D719" s="9"/>
+      <c r="E719" s="11">
+        <v>119.94</v>
+      </c>
+      <c r="F719" s="11">
+        <v>147.83000000000001</v>
+      </c>
+      <c r="G719" s="9"/>
+      <c r="H719" s="9"/>
+      <c r="I719" s="9"/>
+      <c r="J719" s="11">
+        <v>111.89</v>
+      </c>
+      <c r="K719" s="11">
+        <v>110.52</v>
+      </c>
+      <c r="L719" s="11">
+        <v>119.51</v>
+      </c>
+      <c r="M719" s="11">
+        <v>95.59</v>
+      </c>
     </row>
     <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <f t="shared" si="0"/>
         <v>42999</v>
       </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B720" s="8">
+        <v>107.58</v>
+      </c>
+      <c r="C720" s="9"/>
+      <c r="D720" s="9"/>
+      <c r="E720" s="11">
+        <v>119.99</v>
+      </c>
+      <c r="F720" s="11">
+        <v>147.78</v>
+      </c>
+      <c r="G720" s="9"/>
+      <c r="H720" s="9"/>
+      <c r="I720" s="9"/>
+      <c r="J720" s="11">
+        <v>111.84</v>
+      </c>
+      <c r="K720" s="11">
+        <v>110.59</v>
+      </c>
+      <c r="L720" s="11">
+        <v>118.48</v>
+      </c>
+      <c r="M720" s="11">
+        <v>95.14</v>
+      </c>
+    </row>
+    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <f t="shared" si="0"/>
         <v>43000</v>
       </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B721" s="8">
+        <v>107.46</v>
+      </c>
+      <c r="C721" s="9"/>
+      <c r="D721" s="9"/>
+      <c r="E721" s="11">
+        <v>119.85</v>
+      </c>
+      <c r="F721" s="11">
+        <v>147.66</v>
+      </c>
+      <c r="G721" s="9"/>
+      <c r="H721" s="9"/>
+      <c r="I721" s="9"/>
+      <c r="J721" s="11">
+        <v>111.68</v>
+      </c>
+      <c r="K721" s="11">
+        <v>110.51</v>
+      </c>
+      <c r="L721" s="11">
+        <v>118.49</v>
+      </c>
+      <c r="M721" s="11">
+        <v>95.26</v>
+      </c>
+    </row>
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <f t="shared" si="0"/>
         <v>43003</v>
       </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B722" s="8">
+        <v>107.36</v>
+      </c>
+      <c r="C722" s="9"/>
+      <c r="D722" s="9"/>
+      <c r="E722" s="11">
+        <v>119.74</v>
+      </c>
+      <c r="F722" s="11">
+        <v>147.68</v>
+      </c>
+      <c r="G722" s="9"/>
+      <c r="H722" s="9"/>
+      <c r="I722" s="9"/>
+      <c r="J722" s="11">
+        <v>111.64</v>
+      </c>
+      <c r="K722" s="11">
+        <v>110.41</v>
+      </c>
+      <c r="L722" s="11">
+        <v>118.96</v>
+      </c>
+      <c r="M722" s="11">
+        <v>95.59</v>
+      </c>
+    </row>
+    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <f t="shared" si="0"/>
         <v>43004</v>
       </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B723" s="8">
+        <v>107.79</v>
+      </c>
+      <c r="C723" s="9"/>
+      <c r="D723" s="9"/>
+      <c r="E723" s="11">
+        <v>120.02</v>
+      </c>
+      <c r="F723" s="11">
+        <v>147.78</v>
+      </c>
+      <c r="G723" s="9"/>
+      <c r="H723" s="9"/>
+      <c r="I723" s="9"/>
+      <c r="J723" s="11">
+        <v>111.8</v>
+      </c>
+      <c r="K723" s="11">
+        <v>110.64</v>
+      </c>
+      <c r="L723" s="11">
+        <v>118.18</v>
+      </c>
+      <c r="M723" s="11">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <f t="shared" si="0"/>
         <v>43005</v>
       </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B724" s="8">
+        <v>107.66</v>
+      </c>
+      <c r="C724" s="9"/>
+      <c r="D724" s="9"/>
+      <c r="E724" s="11">
+        <v>119.96</v>
+      </c>
+      <c r="F724" s="11">
+        <v>148.02000000000001</v>
+      </c>
+      <c r="G724" s="9"/>
+      <c r="H724" s="9"/>
+      <c r="I724" s="9"/>
+      <c r="J724" s="11">
+        <v>111.91</v>
+      </c>
+      <c r="K724" s="11">
+        <v>110.62</v>
+      </c>
+      <c r="L724" s="11">
+        <v>117.45</v>
+      </c>
+      <c r="M724" s="11">
+        <v>95.15</v>
+      </c>
+    </row>
+    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <f t="shared" si="0"/>
         <v>43006</v>
       </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B725" s="8">
+        <v>107.78</v>
+      </c>
+      <c r="C725" s="9"/>
+      <c r="D725" s="9"/>
+      <c r="E725" s="11">
+        <v>119.9</v>
+      </c>
+      <c r="F725" s="11">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="G725" s="9"/>
+      <c r="H725" s="9"/>
+      <c r="I725" s="9"/>
+      <c r="J725" s="11">
+        <v>111.89</v>
+      </c>
+      <c r="K725" s="11">
+        <v>110.66</v>
+      </c>
+      <c r="L725" s="11">
+        <v>117.59</v>
+      </c>
+      <c r="M725" s="11">
+        <v>95.19</v>
+      </c>
+    </row>
+    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <f t="shared" si="0"/>
         <v>43007</v>
       </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B726" s="8">
+        <v>107.72</v>
+      </c>
+      <c r="C726" s="9"/>
+      <c r="D726" s="9"/>
+      <c r="E726" s="11">
+        <v>119.95</v>
+      </c>
+      <c r="F726" s="11">
+        <v>147.72999999999999</v>
+      </c>
+      <c r="G726" s="9"/>
+      <c r="H726" s="9"/>
+      <c r="I726" s="9"/>
+      <c r="J726" s="11">
+        <v>111.89</v>
+      </c>
+      <c r="K726" s="11">
+        <v>110.6</v>
+      </c>
+      <c r="L726" s="11">
+        <v>118.8</v>
+      </c>
+      <c r="M726" s="11">
+        <v>96.02</v>
+      </c>
+    </row>
+    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <f t="shared" si="0"/>
         <v>43010</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <f t="shared" si="0"/>
         <v>43011</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <f t="shared" si="0"/>
         <v>43012</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <f t="shared" si="0"/>
         <v>43013</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <f t="shared" si="0"/>
         <v>43014</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <f t="shared" si="0"/>
         <v>43017</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <f t="shared" si="0"/>
         <v>43018</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <f t="shared" ref="A734:A791" si="1">WORKDAY(A733,1)</f>
         <v>43019</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <f t="shared" si="1"/>
         <v>43020</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <f t="shared" si="1"/>
         <v>43021</v>
@@ -41286,13 +42592,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:AI104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41309,6 +42615,7 @@
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -41948,7 +43255,7 @@
         <v>175400000</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>42947</v>
       </c>
@@ -41989,7 +43296,7 @@
         <v>169138280.31</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>42978</v>
       </c>
@@ -42030,23 +43337,68 @@
         <v>162900000</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>43007</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <v>1220180000</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1608460000</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1124200000</v>
+      </c>
+      <c r="E35" s="11">
+        <v>195260000</v>
+      </c>
+      <c r="F35" s="11">
+        <v>276900000</v>
+      </c>
+      <c r="G35" s="11">
+        <v>219250000</v>
+      </c>
+      <c r="H35" s="11">
+        <v>170810000</v>
+      </c>
+      <c r="I35" s="11">
+        <v>213220000</v>
+      </c>
+      <c r="J35" s="11">
+        <v>92840000</v>
+      </c>
+      <c r="K35" s="11">
+        <v>126310000</v>
+      </c>
+      <c r="L35" s="11">
+        <v>223810000</v>
+      </c>
+      <c r="M35" s="11">
+        <v>159790000</v>
+      </c>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>43039</v>
       </c>
@@ -42062,7 +43414,7 @@
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>43069</v>
       </c>
@@ -42078,7 +43430,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>43098</v>
       </c>
@@ -42094,7 +43446,7 @@
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>43131</v>
       </c>
@@ -42110,7 +43462,7 @@
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>43159</v>
       </c>
@@ -42126,7 +43478,7 @@
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>43189</v>
       </c>
@@ -42142,7 +43494,7 @@
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>43220</v>
       </c>
@@ -42158,7 +43510,7 @@
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>43251</v>
       </c>
@@ -42174,7 +43526,7 @@
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>43280</v>
       </c>
@@ -42190,7 +43542,7 @@
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>43312</v>
       </c>
@@ -42206,7 +43558,7 @@
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>43343</v>
       </c>
@@ -42222,7 +43574,7 @@
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -42235,7 +43587,7 @@
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -42983,13 +44335,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43006,7 +44358,9 @@
     <col min="10" max="10" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="9"/>
+    <col min="14" max="14" width="9.140625" style="9"/>
+    <col min="15" max="15" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -43473,7 +44827,7 @@
         <v>91330000</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>42947</v>
       </c>
@@ -43514,7 +44868,7 @@
         <v>90387386.286500007</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>42978</v>
       </c>
@@ -43555,24 +44909,61 @@
         <v>87460000</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>43007</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="14">
+        <v>1908270000</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
+        <v>85460000</v>
+      </c>
+      <c r="F35" s="14">
+        <v>612330000</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14">
+        <v>85830000</v>
+      </c>
+      <c r="K35" s="14">
+        <v>377390000</v>
+      </c>
+      <c r="L35" s="14">
+        <v>35890000</v>
+      </c>
+      <c r="M35" s="14">
+        <v>86850000</v>
+      </c>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>43039</v>
       </c>
@@ -43589,7 +44980,7 @@
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>43069</v>
       </c>
@@ -43606,7 +44997,7 @@
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>43098</v>
       </c>
@@ -43623,7 +45014,7 @@
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>43131</v>
       </c>
@@ -43640,7 +45031,7 @@
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>43159</v>
       </c>
@@ -43657,7 +45048,7 @@
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>43189</v>
       </c>
@@ -43674,7 +45065,7 @@
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>43220</v>
       </c>
@@ -43691,7 +45082,7 @@
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>43251</v>
       </c>
@@ -43708,7 +45099,7 @@
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>43280</v>
       </c>
@@ -43725,7 +45116,7 @@
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>43312</v>
       </c>
@@ -43742,7 +45133,7 @@
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>43343</v>
       </c>
@@ -43759,7 +45150,7 @@
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
@@ -43782,8 +45173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M860"/>
   <sheetViews>
-    <sheetView topLeftCell="A677" workbookViewId="0">
-      <selection activeCell="O696" sqref="O696"/>
+    <sheetView topLeftCell="A704" workbookViewId="0">
+      <selection activeCell="B706" sqref="B706:M726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72737,182 +74128,914 @@
         <f t="shared" si="0"/>
         <v>42979</v>
       </c>
+      <c r="B706" s="14">
+        <v>3143960000</v>
+      </c>
+      <c r="C706" s="14">
+        <v>1631280000</v>
+      </c>
+      <c r="D706" s="14">
+        <v>1132330000</v>
+      </c>
+      <c r="E706" s="14">
+        <v>280920000</v>
+      </c>
+      <c r="F706" s="14">
+        <v>886650000</v>
+      </c>
+      <c r="G706" s="14">
+        <v>221000000</v>
+      </c>
+      <c r="H706" s="14">
+        <v>172090000</v>
+      </c>
+      <c r="I706" s="14">
+        <v>222890000</v>
+      </c>
+      <c r="J706" s="14">
+        <v>180650000</v>
+      </c>
+      <c r="K706" s="14">
+        <v>499120000</v>
+      </c>
+      <c r="L706" s="14">
+        <v>260570000</v>
+      </c>
+      <c r="M706" s="14">
+        <v>251180000</v>
+      </c>
     </row>
     <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <f t="shared" si="0"/>
         <v>42982</v>
       </c>
+      <c r="B707" s="9"/>
+      <c r="C707" s="9"/>
+      <c r="D707" s="9"/>
+      <c r="E707" s="9"/>
+      <c r="F707" s="9"/>
+      <c r="G707" s="9"/>
+      <c r="H707" s="9"/>
+      <c r="I707" s="9"/>
+      <c r="J707" s="9"/>
+      <c r="K707" s="9"/>
+      <c r="L707" s="9"/>
+      <c r="M707" s="9"/>
     </row>
     <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <f t="shared" si="0"/>
         <v>42983</v>
       </c>
+      <c r="B708" s="14">
+        <v>3148180000</v>
+      </c>
+      <c r="C708" s="14">
+        <v>1634560000</v>
+      </c>
+      <c r="D708" s="14">
+        <v>1133530000</v>
+      </c>
+      <c r="E708" s="14">
+        <v>281180000</v>
+      </c>
+      <c r="F708" s="14">
+        <v>887030000</v>
+      </c>
+      <c r="G708" s="14">
+        <v>221880000</v>
+      </c>
+      <c r="H708" s="14">
+        <v>172430000</v>
+      </c>
+      <c r="I708" s="14">
+        <v>222160000</v>
+      </c>
+      <c r="J708" s="14">
+        <v>180670000</v>
+      </c>
+      <c r="K708" s="14">
+        <v>500440000</v>
+      </c>
+      <c r="L708" s="14">
+        <v>260470000</v>
+      </c>
+      <c r="M708" s="14">
+        <v>249850000</v>
+      </c>
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <f t="shared" si="0"/>
         <v>42984</v>
       </c>
+      <c r="B709" s="14">
+        <v>3139790000</v>
+      </c>
+      <c r="C709" s="14">
+        <v>1631680000</v>
+      </c>
+      <c r="D709" s="14">
+        <v>1131930000</v>
+      </c>
+      <c r="E709" s="14">
+        <v>281350000</v>
+      </c>
+      <c r="F709" s="14">
+        <v>887290000</v>
+      </c>
+      <c r="G709" s="14">
+        <v>221510000</v>
+      </c>
+      <c r="H709" s="14">
+        <v>172430000</v>
+      </c>
+      <c r="I709" s="14">
+        <v>221850000</v>
+      </c>
+      <c r="J709" s="14">
+        <v>180560000</v>
+      </c>
+      <c r="K709" s="14">
+        <v>500650000</v>
+      </c>
+      <c r="L709" s="14">
+        <v>258730000</v>
+      </c>
+      <c r="M709" s="14">
+        <v>247480000</v>
+      </c>
     </row>
     <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <f t="shared" si="0"/>
         <v>42985</v>
       </c>
+      <c r="B710" s="14">
+        <v>3109750000</v>
+      </c>
+      <c r="C710" s="14">
+        <v>1621260000</v>
+      </c>
+      <c r="D710" s="14">
+        <v>1125320000</v>
+      </c>
+      <c r="E710" s="14">
+        <v>280220000</v>
+      </c>
+      <c r="F710" s="14">
+        <v>888340000</v>
+      </c>
+      <c r="G710" s="14">
+        <v>219470000</v>
+      </c>
+      <c r="H710" s="14">
+        <v>170500000</v>
+      </c>
+      <c r="I710" s="14">
+        <v>219660000</v>
+      </c>
+      <c r="J710" s="14">
+        <v>179960000</v>
+      </c>
+      <c r="K710" s="14">
+        <v>498140000</v>
+      </c>
+      <c r="L710" s="14">
+        <v>258890000</v>
+      </c>
+      <c r="M710" s="14">
+        <v>248840000</v>
+      </c>
     </row>
     <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <f t="shared" si="0"/>
         <v>42986</v>
       </c>
+      <c r="B711" s="14">
+        <v>3129480000</v>
+      </c>
+      <c r="C711" s="14">
+        <v>1624450000</v>
+      </c>
+      <c r="D711" s="14">
+        <v>1127550000</v>
+      </c>
+      <c r="E711" s="14">
+        <v>280810000</v>
+      </c>
+      <c r="F711" s="14">
+        <v>888030000</v>
+      </c>
+      <c r="G711" s="14">
+        <v>220260000</v>
+      </c>
+      <c r="H711" s="14">
+        <v>172390000</v>
+      </c>
+      <c r="I711" s="14">
+        <v>220330000</v>
+      </c>
+      <c r="J711" s="14">
+        <v>180200000</v>
+      </c>
+      <c r="K711" s="14">
+        <v>500240000</v>
+      </c>
+      <c r="L711" s="14">
+        <v>259730000</v>
+      </c>
+      <c r="M711" s="14">
+        <v>248480000</v>
+      </c>
     </row>
     <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <f t="shared" si="0"/>
         <v>42989</v>
       </c>
+      <c r="B712" s="14">
+        <v>3117190000</v>
+      </c>
+      <c r="C712" s="14">
+        <v>1623240000</v>
+      </c>
+      <c r="D712" s="14">
+        <v>1127060000</v>
+      </c>
+      <c r="E712" s="14">
+        <v>280640000</v>
+      </c>
+      <c r="F712" s="14">
+        <v>889710000</v>
+      </c>
+      <c r="G712" s="14">
+        <v>219850000</v>
+      </c>
+      <c r="H712" s="14">
+        <v>172140000</v>
+      </c>
+      <c r="I712" s="14">
+        <v>219780000</v>
+      </c>
+      <c r="J712" s="14">
+        <v>180020000</v>
+      </c>
+      <c r="K712" s="14">
+        <v>501410000</v>
+      </c>
+      <c r="L712" s="14">
+        <v>262420000</v>
+      </c>
+      <c r="M712" s="14">
+        <v>250850000</v>
+      </c>
     </row>
     <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <f t="shared" si="0"/>
         <v>42990</v>
       </c>
+      <c r="B713" s="14">
+        <v>3143840000</v>
+      </c>
+      <c r="C713" s="14">
+        <v>1626470000</v>
+      </c>
+      <c r="D713" s="14">
+        <v>1129580000</v>
+      </c>
+      <c r="E713" s="14">
+        <v>281820000</v>
+      </c>
+      <c r="F713" s="14">
+        <v>889210000</v>
+      </c>
+      <c r="G713" s="14">
+        <v>221370000</v>
+      </c>
+      <c r="H713" s="14">
+        <v>173460000</v>
+      </c>
+      <c r="I713" s="14">
+        <v>220030000</v>
+      </c>
+      <c r="J713" s="14">
+        <v>180160000</v>
+      </c>
+      <c r="K713" s="14">
+        <v>503280000</v>
+      </c>
+      <c r="L713" s="14">
+        <v>261590000</v>
+      </c>
+      <c r="M713" s="14">
+        <v>249440000</v>
+      </c>
     </row>
     <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <f t="shared" si="0"/>
         <v>42991</v>
       </c>
+      <c r="B714" s="14">
+        <v>3140110000</v>
+      </c>
+      <c r="C714" s="14">
+        <v>1625000000</v>
+      </c>
+      <c r="D714" s="14">
+        <v>1128180000</v>
+      </c>
+      <c r="E714" s="14">
+        <v>281670000</v>
+      </c>
+      <c r="F714" s="14">
+        <v>888130000</v>
+      </c>
+      <c r="G714" s="14">
+        <v>221230000</v>
+      </c>
+      <c r="H714" s="14">
+        <v>172560000</v>
+      </c>
+      <c r="I714" s="14">
+        <v>220040000</v>
+      </c>
+      <c r="J714" s="14">
+        <v>179770000</v>
+      </c>
+      <c r="K714" s="14">
+        <v>502870000</v>
+      </c>
+      <c r="L714" s="14">
+        <v>260530000</v>
+      </c>
+      <c r="M714" s="14">
+        <v>248140000</v>
+      </c>
     </row>
     <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <f t="shared" si="0"/>
         <v>42992</v>
       </c>
+      <c r="B715" s="14">
+        <v>3139200000</v>
+      </c>
+      <c r="C715" s="14">
+        <v>1627880000</v>
+      </c>
+      <c r="D715" s="14">
+        <v>1130350000</v>
+      </c>
+      <c r="E715" s="14">
+        <v>281800000</v>
+      </c>
+      <c r="F715" s="14">
+        <v>887690000</v>
+      </c>
+      <c r="G715" s="14">
+        <v>220690000</v>
+      </c>
+      <c r="H715" s="14">
+        <v>172730000</v>
+      </c>
+      <c r="I715" s="14">
+        <v>220330000</v>
+      </c>
+      <c r="J715" s="14">
+        <v>179760000</v>
+      </c>
+      <c r="K715" s="14">
+        <v>502800000</v>
+      </c>
+      <c r="L715" s="14">
+        <v>262410000</v>
+      </c>
+      <c r="M715" s="14">
+        <v>249200000</v>
+      </c>
     </row>
     <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <f t="shared" si="0"/>
         <v>42993</v>
       </c>
+      <c r="B716" s="14">
+        <v>3137200000</v>
+      </c>
+      <c r="C716" s="14">
+        <v>1617120000</v>
+      </c>
+      <c r="D716" s="14">
+        <v>1124870000</v>
+      </c>
+      <c r="E716" s="14">
+        <v>281590000</v>
+      </c>
+      <c r="F716" s="14">
+        <v>887230000</v>
+      </c>
+      <c r="G716" s="14">
+        <v>220380000</v>
+      </c>
+      <c r="H716" s="14">
+        <v>172440000</v>
+      </c>
+      <c r="I716" s="14">
+        <v>219410000</v>
+      </c>
+      <c r="J716" s="14">
+        <v>179290000</v>
+      </c>
+      <c r="K716" s="14">
+        <v>503210000</v>
+      </c>
+      <c r="L716" s="14">
+        <v>257380000</v>
+      </c>
+      <c r="M716" s="14">
+        <v>245400000</v>
+      </c>
     </row>
     <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <f t="shared" si="0"/>
         <v>42996</v>
       </c>
+      <c r="B717" s="14">
+        <v>3087100000</v>
+      </c>
+      <c r="C717" s="14">
+        <v>1593450000</v>
+      </c>
+      <c r="D717" s="14">
+        <v>1110860000</v>
+      </c>
+      <c r="E717" s="14">
+        <v>278570000</v>
+      </c>
+      <c r="F717" s="14">
+        <v>885340000</v>
+      </c>
+      <c r="G717" s="14">
+        <v>217250000</v>
+      </c>
+      <c r="H717" s="14">
+        <v>168440000</v>
+      </c>
+      <c r="I717" s="14">
+        <v>215070000</v>
+      </c>
+      <c r="J717" s="14">
+        <v>177970000</v>
+      </c>
+      <c r="K717" s="14">
+        <v>497790000</v>
+      </c>
+      <c r="L717" s="14">
+        <v>258030000</v>
+      </c>
+      <c r="M717" s="14">
+        <v>245750000</v>
+      </c>
     </row>
     <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <f t="shared" si="0"/>
         <v>42997</v>
       </c>
+      <c r="B718" s="14">
+        <v>3105280000</v>
+      </c>
+      <c r="C718" s="14">
+        <v>1600530000</v>
+      </c>
+      <c r="D718" s="14">
+        <v>1115420000</v>
+      </c>
+      <c r="E718" s="14">
+        <v>279410000</v>
+      </c>
+      <c r="F718" s="14">
+        <v>885820000</v>
+      </c>
+      <c r="G718" s="14">
+        <v>218060000</v>
+      </c>
+      <c r="H718" s="14">
+        <v>170070000</v>
+      </c>
+      <c r="I718" s="14">
+        <v>217450000</v>
+      </c>
+      <c r="J718" s="14">
+        <v>178030000</v>
+      </c>
+      <c r="K718" s="14">
+        <v>499560000</v>
+      </c>
+      <c r="L718" s="14">
+        <v>259020000</v>
+      </c>
+      <c r="M718" s="14">
+        <v>246040000</v>
+      </c>
     </row>
     <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <f t="shared" si="0"/>
         <v>42998</v>
       </c>
+      <c r="B719" s="14">
+        <v>3118620000</v>
+      </c>
+      <c r="C719" s="14">
+        <v>1607890000</v>
+      </c>
+      <c r="D719" s="14">
+        <v>1120350000</v>
+      </c>
+      <c r="E719" s="14">
+        <v>280300000</v>
+      </c>
+      <c r="F719" s="14">
+        <v>888660000</v>
+      </c>
+      <c r="G719" s="14">
+        <v>218680000</v>
+      </c>
+      <c r="H719" s="14">
+        <v>171010000</v>
+      </c>
+      <c r="I719" s="14">
+        <v>217670000</v>
+      </c>
+      <c r="J719" s="14">
+        <v>178420000</v>
+      </c>
+      <c r="K719" s="14">
+        <v>501030000</v>
+      </c>
+      <c r="L719" s="14">
+        <v>259340000</v>
+      </c>
+      <c r="M719" s="14">
+        <v>246360000</v>
+      </c>
     </row>
     <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <f t="shared" si="0"/>
         <v>42999</v>
       </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B720" s="14">
+        <v>3123650000</v>
+      </c>
+      <c r="C720" s="14">
+        <v>1609520000</v>
+      </c>
+      <c r="D720" s="14">
+        <v>1121370000</v>
+      </c>
+      <c r="E720" s="14">
+        <v>278690000</v>
+      </c>
+      <c r="F720" s="14">
+        <v>888270000</v>
+      </c>
+      <c r="G720" s="14">
+        <v>218830000</v>
+      </c>
+      <c r="H720" s="14">
+        <v>170870000</v>
+      </c>
+      <c r="I720" s="14">
+        <v>217510000</v>
+      </c>
+      <c r="J720" s="14">
+        <v>178440000</v>
+      </c>
+      <c r="K720" s="14">
+        <v>501780000</v>
+      </c>
+      <c r="L720" s="14">
+        <v>257070000</v>
+      </c>
+      <c r="M720" s="14">
+        <v>245090000</v>
+      </c>
+    </row>
+    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <f t="shared" si="0"/>
         <v>43000</v>
       </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B721" s="14">
+        <v>3120140000</v>
+      </c>
+      <c r="C721" s="14">
+        <v>1605840000</v>
+      </c>
+      <c r="D721" s="14">
+        <v>1119520000</v>
+      </c>
+      <c r="E721" s="14">
+        <v>280310000</v>
+      </c>
+      <c r="F721" s="14">
+        <v>887610000</v>
+      </c>
+      <c r="G721" s="14">
+        <v>218610000</v>
+      </c>
+      <c r="H721" s="14">
+        <v>170500000</v>
+      </c>
+      <c r="I721" s="14">
+        <v>217460000</v>
+      </c>
+      <c r="J721" s="14">
+        <v>178200000</v>
+      </c>
+      <c r="K721" s="14">
+        <v>501450000</v>
+      </c>
+      <c r="L721" s="14">
+        <v>257460000</v>
+      </c>
+      <c r="M721" s="14">
+        <v>245300000</v>
+      </c>
+    </row>
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <f t="shared" si="0"/>
         <v>43003</v>
       </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B722" s="14">
+        <v>3117100000</v>
+      </c>
+      <c r="C722" s="14">
+        <v>1603470000</v>
+      </c>
+      <c r="D722" s="14">
+        <v>1119320000</v>
+      </c>
+      <c r="E722" s="14">
+        <v>280190000</v>
+      </c>
+      <c r="F722" s="14">
+        <v>888000000</v>
+      </c>
+      <c r="G722" s="14">
+        <v>218400000</v>
+      </c>
+      <c r="H722" s="14">
+        <v>170730000</v>
+      </c>
+      <c r="I722" s="14">
+        <v>215560000</v>
+      </c>
+      <c r="J722" s="14">
+        <v>178110000</v>
+      </c>
+      <c r="K722" s="14">
+        <v>500950000</v>
+      </c>
+      <c r="L722" s="14">
+        <v>258430000</v>
+      </c>
+      <c r="M722" s="14">
+        <v>246040000</v>
+      </c>
+    </row>
+    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <f t="shared" si="0"/>
         <v>43004</v>
       </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B723" s="14">
+        <v>3130220000</v>
+      </c>
+      <c r="C723" s="14">
+        <v>1609410000</v>
+      </c>
+      <c r="D723" s="14">
+        <v>1123090000</v>
+      </c>
+      <c r="E723" s="14">
+        <v>280960000</v>
+      </c>
+      <c r="F723" s="14">
+        <v>888800000</v>
+      </c>
+      <c r="G723" s="14">
+        <v>219340000</v>
+      </c>
+      <c r="H723" s="14">
+        <v>170610000</v>
+      </c>
+      <c r="I723" s="14">
+        <v>215540000</v>
+      </c>
+      <c r="J723" s="14">
+        <v>178470000</v>
+      </c>
+      <c r="K723" s="14">
+        <v>502250000</v>
+      </c>
+      <c r="L723" s="14">
+        <v>256980000</v>
+      </c>
+      <c r="M723" s="14">
+        <v>245080000</v>
+      </c>
+    </row>
+    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <f t="shared" si="0"/>
         <v>43005</v>
       </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B724" s="14">
+        <v>3126330000</v>
+      </c>
+      <c r="C724" s="14">
+        <v>1608240000</v>
+      </c>
+      <c r="D724" s="14">
+        <v>1122990000</v>
+      </c>
+      <c r="E724" s="14">
+        <v>280780000</v>
+      </c>
+      <c r="F724" s="14">
+        <v>890450000</v>
+      </c>
+      <c r="G724" s="14">
+        <v>219160000</v>
+      </c>
+      <c r="H724" s="14">
+        <v>169740000</v>
+      </c>
+      <c r="I724" s="14">
+        <v>214490000</v>
+      </c>
+      <c r="J724" s="14">
+        <v>178690000</v>
+      </c>
+      <c r="K724" s="14">
+        <v>502240000</v>
+      </c>
+      <c r="L724" s="14">
+        <v>256840000</v>
+      </c>
+      <c r="M724" s="14">
+        <v>244560000</v>
+      </c>
+    </row>
+    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <f t="shared" si="0"/>
         <v>43006</v>
       </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B725" s="14">
+        <v>3129580000</v>
+      </c>
+      <c r="C725" s="14">
+        <v>1606020000</v>
+      </c>
+      <c r="D725" s="14">
+        <v>1121930000</v>
+      </c>
+      <c r="E725" s="14">
+        <v>280620000</v>
+      </c>
+      <c r="F725" s="14">
+        <v>889430000</v>
+      </c>
+      <c r="G725" s="14">
+        <v>219300000</v>
+      </c>
+      <c r="H725" s="14">
+        <v>169600000</v>
+      </c>
+      <c r="I725" s="14">
+        <v>213800000</v>
+      </c>
+      <c r="J725" s="14">
+        <v>178660000</v>
+      </c>
+      <c r="K725" s="14">
+        <v>502470000</v>
+      </c>
+      <c r="L725" s="14">
+        <v>257080000</v>
+      </c>
+      <c r="M725" s="14">
+        <v>244600000</v>
+      </c>
+    </row>
+    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <f t="shared" si="0"/>
         <v>43007</v>
       </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B726" s="14">
+        <v>3128450000</v>
+      </c>
+      <c r="C726" s="14">
+        <v>1608460000</v>
+      </c>
+      <c r="D726" s="14">
+        <v>1124200000</v>
+      </c>
+      <c r="E726" s="14">
+        <v>280720000</v>
+      </c>
+      <c r="F726" s="14">
+        <v>889230000</v>
+      </c>
+      <c r="G726" s="14">
+        <v>219250000</v>
+      </c>
+      <c r="H726" s="14">
+        <v>170810000</v>
+      </c>
+      <c r="I726" s="14">
+        <v>213220000</v>
+      </c>
+      <c r="J726" s="14">
+        <v>178670000</v>
+      </c>
+      <c r="K726" s="14">
+        <v>503700000</v>
+      </c>
+      <c r="L726" s="14">
+        <v>259700000</v>
+      </c>
+      <c r="M726" s="14">
+        <v>246640000</v>
+      </c>
+    </row>
+    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <f t="shared" si="0"/>
         <v>43010</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <f t="shared" si="0"/>
         <v>43011</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <f t="shared" si="0"/>
         <v>43012</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <f t="shared" si="0"/>
         <v>43013</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <f t="shared" si="0"/>
         <v>43014</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <f t="shared" si="0"/>
         <v>43017</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <f t="shared" si="0"/>
         <v>43018</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <f t="shared" si="0"/>
         <v>43019</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <f t="shared" si="0"/>
         <v>43020</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <f t="shared" si="0"/>
         <v>43021</v>
@@ -74100,8 +76223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2092BF24-7583-4D0F-A021-44D7068EA9C7}">
   <dimension ref="A1:C319"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74125,10 +76248,10 @@
         <v>41670</v>
       </c>
       <c r="B2" s="12">
-        <v>13408781</v>
+        <v>13474466</v>
       </c>
       <c r="C2" s="12">
-        <v>101737000000</v>
+        <v>102272000000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -74136,10 +76259,10 @@
         <v>41698</v>
       </c>
       <c r="B3" s="12">
-        <v>13905862</v>
+        <v>13962252</v>
       </c>
       <c r="C3" s="12">
-        <v>108855000000</v>
+        <v>109276000000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -74147,10 +76270,10 @@
         <v>41729</v>
       </c>
       <c r="B4" s="12">
-        <v>14653915</v>
+        <v>14717720</v>
       </c>
       <c r="C4" s="12">
-        <v>114480000000</v>
+        <v>115017000000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -74158,10 +76281,10 @@
         <v>41759</v>
       </c>
       <c r="B5" s="12">
-        <v>12516250</v>
+        <v>12581772</v>
       </c>
       <c r="C5" s="12">
-        <v>98096404222</v>
+        <v>98542597603</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -74169,10 +76292,10 @@
         <v>41789</v>
       </c>
       <c r="B6" s="12">
-        <v>12153191</v>
+        <v>12214846</v>
       </c>
       <c r="C6" s="12">
-        <v>102475000000</v>
+        <v>102894000000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -74180,10 +76303,10 @@
         <v>41820</v>
       </c>
       <c r="B7" s="12">
-        <v>12339866</v>
+        <v>12419129</v>
       </c>
       <c r="C7" s="12">
-        <v>94400792338</v>
+        <v>94931608327</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -74191,10 +76314,10 @@
         <v>41851</v>
       </c>
       <c r="B8" s="12">
-        <v>12813922</v>
+        <v>12882627</v>
       </c>
       <c r="C8" s="12">
-        <v>101736000000</v>
+        <v>102159000000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -74202,10 +76325,10 @@
         <v>41880</v>
       </c>
       <c r="B9" s="12">
-        <v>10905164</v>
+        <v>10965245</v>
       </c>
       <c r="C9" s="12">
-        <v>82507325729</v>
+        <v>82914367152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -74213,10 +76336,10 @@
         <v>41912</v>
       </c>
       <c r="B10" s="12">
-        <v>12942180</v>
+        <v>13017341</v>
       </c>
       <c r="C10" s="12">
-        <v>147319899363</v>
+        <v>147793282245</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -74224,10 +76347,10 @@
         <v>41943</v>
       </c>
       <c r="B11" s="12">
-        <v>18418896</v>
+        <v>18496488</v>
       </c>
       <c r="C11" s="12">
-        <v>136152277254</v>
+        <v>136655404379</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -74235,10 +76358,10 @@
         <v>41971</v>
       </c>
       <c r="B12" s="12">
-        <v>13196651</v>
+        <v>13257172</v>
       </c>
       <c r="C12" s="12">
-        <v>99122626732</v>
+        <v>99550784404</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -74246,10 +76369,10 @@
         <v>42004</v>
       </c>
       <c r="B13" s="12">
-        <v>13571637</v>
+        <v>13630573</v>
       </c>
       <c r="C13" s="12">
-        <v>97649639391</v>
+        <v>98149905652</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -74257,10 +76380,10 @@
         <v>42034</v>
       </c>
       <c r="B14" s="12">
-        <v>16966645</v>
+        <v>17029153</v>
       </c>
       <c r="C14" s="12">
-        <v>110680822396</v>
+        <v>111226033863</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -74268,10 +76391,10 @@
         <v>42062</v>
       </c>
       <c r="B15" s="12">
-        <v>15371662</v>
+        <v>15427458</v>
       </c>
       <c r="C15" s="12">
-        <v>108842319337</v>
+        <v>109348171886</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -74279,10 +76402,10 @@
         <v>42094</v>
       </c>
       <c r="B16" s="12">
-        <v>18033706</v>
+        <v>18123274</v>
       </c>
       <c r="C16" s="12">
-        <v>129856674522</v>
+        <v>130660906309</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -74290,10 +76413,10 @@
         <v>42124</v>
       </c>
       <c r="B17" s="12">
-        <v>16012331</v>
+        <v>16081946</v>
       </c>
       <c r="C17" s="12">
-        <v>112651153481</v>
+        <v>113240991132</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -74301,10 +76424,10 @@
         <v>42153</v>
       </c>
       <c r="B18" s="12">
-        <v>15066043</v>
+        <v>15140257</v>
       </c>
       <c r="C18" s="12">
-        <v>105156079342</v>
+        <v>105730920044</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -74312,10 +76435,10 @@
         <v>42185</v>
       </c>
       <c r="B19" s="12">
-        <v>16601617</v>
+        <v>16682303</v>
       </c>
       <c r="C19" s="12">
-        <v>117628619826</v>
+        <v>118223712410</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -74323,10 +76446,10 @@
         <v>42216</v>
       </c>
       <c r="B20" s="12">
-        <v>16336300</v>
+        <v>16398848</v>
       </c>
       <c r="C20" s="12">
-        <v>108049706029</v>
+        <v>108544573817</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -74334,10 +76457,10 @@
         <v>42247</v>
       </c>
       <c r="B21" s="12">
-        <v>17051702</v>
+        <v>17122873</v>
       </c>
       <c r="C21" s="12">
-        <v>108685869686</v>
+        <v>109222380416</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -74345,10 +76468,10 @@
         <v>42277</v>
       </c>
       <c r="B22" s="12">
-        <v>17850318</v>
+        <v>17925539</v>
       </c>
       <c r="C22" s="12">
-        <v>107190086678</v>
+        <v>107663183218</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -74356,10 +76479,10 @@
         <v>42307</v>
       </c>
       <c r="B23" s="12">
-        <v>16312115</v>
+        <v>16372964</v>
       </c>
       <c r="C23" s="12">
-        <v>103443099622</v>
+        <v>103830007110</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -74367,10 +76490,10 @@
         <v>42338</v>
       </c>
       <c r="B24" s="12">
-        <v>15167002</v>
+        <v>15228806</v>
       </c>
       <c r="C24" s="12">
-        <v>116066096701</v>
+        <v>116650879791</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -74378,10 +76501,10 @@
         <v>42369</v>
       </c>
       <c r="B25" s="12">
-        <v>14531192</v>
+        <v>14599903</v>
       </c>
       <c r="C25" s="12">
-        <v>86116629372</v>
+        <v>86671392799</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -74389,10 +76512,10 @@
         <v>42398</v>
       </c>
       <c r="B26" s="12">
-        <v>21689842</v>
+        <v>21790337</v>
       </c>
       <c r="C26" s="12">
-        <v>124233604693</v>
+        <v>124984965368</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -74400,10 +76523,10 @@
         <v>42429</v>
       </c>
       <c r="B27" s="12">
-        <v>22464580</v>
+        <v>22570805</v>
       </c>
       <c r="C27" s="12">
-        <v>129626874317</v>
+        <v>130405746258</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -74411,10 +76534,10 @@
         <v>42460</v>
       </c>
       <c r="B28" s="12">
-        <v>20355488</v>
+        <v>20466981</v>
       </c>
       <c r="C28" s="12">
-        <v>120020323287</v>
+        <v>121381195318</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -74422,10 +76545,10 @@
         <v>42489</v>
       </c>
       <c r="B29" s="12">
-        <v>19505429</v>
+        <v>19621744</v>
       </c>
       <c r="C29" s="12">
-        <v>118251021868</v>
+        <v>119150359180</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -74433,10 +76556,10 @@
         <v>42521</v>
       </c>
       <c r="B30" s="12">
-        <v>17489158</v>
+        <v>17600543</v>
       </c>
       <c r="C30" s="12">
-        <v>106974439857</v>
+        <v>108216831390</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -74444,10 +76567,10 @@
         <v>42551</v>
       </c>
       <c r="B31" s="12">
-        <v>26161463</v>
+        <v>26358473</v>
       </c>
       <c r="C31" s="12">
-        <v>156074987183</v>
+        <v>157276741865</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -74455,10 +76578,10 @@
         <v>42580</v>
       </c>
       <c r="B32" s="12">
-        <v>44496804</v>
+        <v>44848210</v>
       </c>
       <c r="C32" s="12">
-        <v>275094685832</v>
+        <v>277253585288</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -74466,10 +76589,10 @@
         <v>42613</v>
       </c>
       <c r="B33" s="12">
-        <v>17934980</v>
+        <v>18040160</v>
       </c>
       <c r="C33" s="12">
-        <v>138399832835</v>
+        <v>139227238438</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -74477,10 +76600,10 @@
         <v>42643</v>
       </c>
       <c r="B34" s="12">
-        <v>19989528</v>
+        <v>20135856</v>
       </c>
       <c r="C34" s="12">
-        <v>150114890886</v>
+        <v>151215496150</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -74488,10 +76611,10 @@
         <v>42674</v>
       </c>
       <c r="B35" s="12">
-        <v>21779038</v>
+        <v>21965368</v>
       </c>
       <c r="C35" s="12">
-        <v>152170582875</v>
+        <v>153479005157</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -74499,10 +76622,10 @@
         <v>42704</v>
       </c>
       <c r="B36" s="12">
-        <v>25156673</v>
+        <v>25318995</v>
       </c>
       <c r="C36" s="12">
-        <v>163635501574</v>
+        <v>164781904084</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -74510,10 +76633,10 @@
         <v>42734</v>
       </c>
       <c r="B37" s="12">
-        <v>19292991</v>
+        <v>19422037</v>
       </c>
       <c r="C37" s="12">
-        <v>129586959651</v>
+        <v>130577574363</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -74521,10 +76644,10 @@
         <v>42766</v>
       </c>
       <c r="B38" s="12">
-        <v>21494137</v>
+        <v>21627928</v>
       </c>
       <c r="C38" s="12">
-        <v>150962591480</v>
+        <v>152024543543</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -74532,10 +76655,10 @@
         <v>42794</v>
       </c>
       <c r="B39" s="12">
-        <v>21476641</v>
+        <v>21625913</v>
       </c>
       <c r="C39" s="12">
-        <v>147766301918</v>
+        <v>148920620907</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -74543,10 +76666,10 @@
         <v>42825</v>
       </c>
       <c r="B40" s="12">
-        <v>25519654</v>
+        <v>25721024</v>
       </c>
       <c r="C40" s="12">
-        <v>179639706016</v>
+        <v>181581317893</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -74554,10 +76677,10 @@
         <v>42853</v>
       </c>
       <c r="B41" s="12">
-        <v>19731682</v>
+        <v>19886464</v>
       </c>
       <c r="C41" s="12">
-        <v>136009780416</v>
+        <v>137227498161</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -74565,10 +76688,10 @@
         <v>42886</v>
       </c>
       <c r="B42" s="12">
-        <v>23777457</v>
+        <v>23963070</v>
       </c>
       <c r="C42" s="12">
-        <v>167726959249</v>
+        <v>169279278377</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -74576,10 +76699,10 @@
         <v>42916</v>
       </c>
       <c r="B43" s="12">
-        <v>25222131</v>
+        <v>25431207</v>
       </c>
       <c r="C43" s="12">
-        <v>182882763237</v>
+        <v>184370503843</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -74587,25 +76710,33 @@
         <v>42947</v>
       </c>
       <c r="B44" s="12">
-        <v>21798054</v>
+        <v>21968542</v>
       </c>
       <c r="C44" s="12">
-        <v>159447636514</v>
+        <v>160714299066</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>42978</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="B45" s="12">
+        <v>20761722</v>
+      </c>
+      <c r="C45" s="12">
+        <v>141541923581</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>43007</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="B46" s="12">
+        <v>20434662</v>
+      </c>
+      <c r="C46" s="12">
+        <v>159127513591</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
